--- a/PerformanceTests/results/viewer.xlsx
+++ b/PerformanceTests/results/viewer.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="evaluation_results_May_11__2014_11_36_04_PM" localSheetId="0">Sheet1!$B$5:$T$58</definedName>
+    <definedName name="evaluation_results_May_11__2014_11_36_04_PM" localSheetId="0">Sheet1!$B$5:$T$93</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -21,7 +21,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="evaluation-results-May 11, 2014 11_36_04 PM" type="6" refreshedVersion="4" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="D:\Projecten\Mahout-proeftuin\PerformanceTests\results\evaluation-results-May 21, 2014 3_46_41 PM.csv" tab="0" comma="1">
+    <textPr codePage="437" sourceFile="D:\Projecten\Mahout-proeftuin\PerformanceTests-0.8\results\evaluation-results-May 22, 2014 3_21_14 PM.csv" tab="0" comma="1">
       <textFields count="14">
         <textField/>
         <textField/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="70">
   <si>
     <t>data set</t>
   </si>
@@ -55,9 +55,6 @@
     <t>run</t>
   </si>
   <si>
-    <t>precision</t>
-  </si>
-  <si>
     <t>recall</t>
   </si>
   <si>
@@ -214,9 +211,6 @@
     <t>KnnItemBased</t>
   </si>
   <si>
-    <t>TreeClustering</t>
-  </si>
-  <si>
     <t>You can update the source file via Data-&gt;Refresh. Note that sometimes, Excel locks a part of the file and a write conflict can occur if Java is still writing.</t>
   </si>
   <si>
@@ -235,13 +229,31 @@
     <t>ct</t>
   </si>
   <si>
-    <t>dur.(sec)</t>
-  </si>
-  <si>
     <t>av abs dif</t>
   </si>
   <si>
     <t>F1 msr</t>
+  </si>
+  <si>
+    <t>dur (s)</t>
+  </si>
+  <si>
+    <t>prec</t>
+  </si>
+  <si>
+    <t>BookCrossing</t>
+  </si>
+  <si>
+    <t>KddCupTrack1</t>
+  </si>
+  <si>
+    <t>TreeClustering2</t>
+  </si>
+  <si>
+    <t>BIB Pearson</t>
+  </si>
+  <si>
+    <t>BIB Euclidian</t>
   </si>
 </sst>
 </file>
@@ -252,7 +264,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +273,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -295,7 +315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -308,6 +328,11 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -616,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AK58"/>
+  <dimension ref="B2:AK93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A54" sqref="A11:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,21 +652,20 @@
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" style="8" customWidth="1"/>
     <col min="4" max="4" width="4.140625" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" customWidth="1"/>
+    <col min="5" max="5" width="6" style="11" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" customWidth="1"/>
+    <col min="7" max="7" width="6" style="11" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" customWidth="1"/>
+    <col min="9" max="9" width="6" style="11" customWidth="1"/>
     <col min="10" max="10" width="8.5703125" customWidth="1"/>
     <col min="11" max="11" width="4.42578125" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
+    <col min="14" max="15" width="6.7109375" customWidth="1"/>
     <col min="16" max="16" width="7.7109375" customWidth="1"/>
     <col min="17" max="17" width="7" customWidth="1"/>
     <col min="18" max="18" width="6.7109375" customWidth="1"/>
-    <col min="19" max="19" width="8.85546875" customWidth="1"/>
+    <col min="19" max="19" width="6.85546875" customWidth="1"/>
     <col min="20" max="20" width="11.140625" customWidth="1"/>
     <col min="21" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="6.7109375" bestFit="1" customWidth="1"/>
@@ -654,15 +678,15 @@
   <sheetData>
     <row r="2" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="10"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="I2" s="10"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
@@ -672,15 +696,15 @@
     </row>
     <row r="3" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="I3" s="10"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -690,10 +714,10 @@
     </row>
     <row r="5" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="AB5"/>
       <c r="AD5"/>
@@ -706,10 +730,10 @@
     </row>
     <row r="6" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="AB6"/>
       <c r="AD6"/>
@@ -722,7 +746,7 @@
     </row>
     <row r="7" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="8">
         <v>64</v>
@@ -738,10 +762,10 @@
     </row>
     <row r="8" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB8"/>
       <c r="AD8"/>
@@ -772,47 +796,47 @@
       <c r="D10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="I10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="K10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" s="6" t="s">
+      <c r="L10" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>63</v>
       </c>
       <c r="N10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="6" t="s">
-        <v>4</v>
-      </c>
       <c r="P10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="R10" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="R10" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="S10" s="6" t="s">
         <v>63</v>
@@ -824,27 +848,27 @@
     </row>
     <row r="11" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>6</v>
-      </c>
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11">
-        <v>2</v>
+      <c r="E11" s="11">
+        <v>3</v>
       </c>
       <c r="F11">
         <v>0.01</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="11">
         <v>4</v>
       </c>
       <c r="H11">
-        <v>0.08</v>
-      </c>
-      <c r="I11">
+        <v>0.1</v>
+      </c>
+      <c r="I11" s="11">
         <v>5</v>
       </c>
       <c r="J11">
@@ -854,28 +878,28 @@
         <v>4</v>
       </c>
       <c r="L11">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="M11">
-        <v>9.1999999999999998E-2</v>
+        <v>0.114</v>
       </c>
       <c r="N11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S11">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="AB11"/>
       <c r="AD11"/>
@@ -888,58 +912,58 @@
     </row>
     <row r="12" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="11">
         <v>2</v>
       </c>
       <c r="F12">
-        <v>0.01</v>
-      </c>
-      <c r="G12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G12" s="11">
         <v>2</v>
       </c>
       <c r="H12">
-        <v>0.01</v>
-      </c>
-      <c r="I12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I12" s="11">
         <v>2</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K12">
         <v>4</v>
       </c>
       <c r="L12">
-        <v>1.5</v>
+        <v>0.92</v>
       </c>
       <c r="M12">
-        <v>1.2E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="N12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S12">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="AB12"/>
       <c r="AD12"/>
@@ -952,55 +976,55 @@
     </row>
     <row r="13" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="11">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
+        <v>2E-3</v>
+      </c>
+      <c r="G13" s="11">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I13" s="11">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K13">
         <v>4</v>
       </c>
       <c r="L13">
-        <v>1.1499999999999999</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="M13">
-        <v>6.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="N13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S13">
         <v>0.01</v>
@@ -1016,28 +1040,28 @@
     </row>
     <row r="14" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="11">
         <v>1</v>
       </c>
       <c r="F14">
         <v>0.01</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="11">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>0.02</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I14" s="11">
+        <v>1</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1046,25 +1070,25 @@
         <v>4</v>
       </c>
       <c r="L14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M14">
-        <v>1.7999999999999999E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="N14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S14">
         <v>0.02</v>
@@ -1080,55 +1104,55 @@
     </row>
     <row r="15" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15">
-        <v>1</v>
+      <c r="E15" s="11">
+        <v>2</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15">
-        <v>1</v>
+      <c r="G15" s="11">
+        <v>2</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15">
-        <v>1</v>
+      <c r="I15" s="11">
+        <v>2</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K15">
         <v>4</v>
       </c>
       <c r="L15">
-        <v>2.08</v>
+        <v>1.06</v>
       </c>
       <c r="M15">
-        <v>1.0999999999999999E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="N15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S15">
         <v>0.01</v>
@@ -1144,27 +1168,27 @@
     </row>
     <row r="16" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="11">
         <v>1</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="11">
         <v>1</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="11">
         <v>1</v>
       </c>
       <c r="J16">
@@ -1174,28 +1198,28 @@
         <v>4</v>
       </c>
       <c r="L16">
-        <v>1.05</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="M16">
-        <v>1.4999999999999999E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="N16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S16">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AB16"/>
       <c r="AD16"/>
@@ -1208,27 +1232,27 @@
     </row>
     <row r="17" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="11">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
+        <v>1E-3</v>
+      </c>
+      <c r="G17" s="11">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
+        <v>2E-3</v>
+      </c>
+      <c r="I17" s="11">
         <v>1</v>
       </c>
       <c r="J17">
@@ -1238,28 +1262,28 @@
         <v>4</v>
       </c>
       <c r="L17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M17">
-        <v>4.0000000000000001E-3</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="N17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S17">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="AB17"/>
       <c r="AD17"/>
@@ -1272,55 +1296,55 @@
     </row>
     <row r="18" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="11">
         <v>1</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="11">
         <v>1</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="11">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K18">
         <v>4</v>
       </c>
       <c r="L18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M18">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="N18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S18">
         <v>0.01</v>
@@ -1336,27 +1360,27 @@
     </row>
     <row r="19" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="11">
         <v>1</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="11">
         <v>1</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="11">
         <v>1</v>
       </c>
       <c r="J19">
@@ -1366,25 +1390,25 @@
         <v>4</v>
       </c>
       <c r="L19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M19">
-        <v>1.4999999999999999E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="N19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S19">
         <v>0.02</v>
@@ -1400,55 +1424,55 @@
     </row>
     <row r="20" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="11">
         <v>1</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="11">
         <v>1</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="11">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K20">
         <v>4</v>
       </c>
       <c r="L20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M20">
-        <v>7.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="N20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S20">
         <v>0.01</v>
@@ -1464,28 +1488,28 @@
     </row>
     <row r="21" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21">
-        <v>1</v>
+      <c r="E21" s="11">
+        <v>2</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21">
-        <v>1</v>
+      <c r="G21" s="11">
+        <v>2</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
-      <c r="I21">
-        <v>1</v>
+      <c r="I21" s="11">
+        <v>2</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1494,25 +1518,25 @@
         <v>4</v>
       </c>
       <c r="L21">
-        <v>1.08</v>
+        <v>0.95</v>
       </c>
       <c r="M21">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="N21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S21">
         <v>0.01</v>
@@ -1528,55 +1552,55 @@
     </row>
     <row r="22" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="11">
         <v>1</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="11">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>0.01</v>
-      </c>
-      <c r="I22">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I22" s="11">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K22">
         <v>4</v>
       </c>
       <c r="L22">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="M22">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="N22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S22">
         <v>0.01</v>
@@ -1592,55 +1616,55 @@
     </row>
     <row r="23" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="11">
         <v>1</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="11">
         <v>1</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="11">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K23">
         <v>4</v>
       </c>
       <c r="L23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M23">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="N23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S23">
         <v>0.01</v>
@@ -1656,27 +1680,27 @@
     </row>
     <row r="24" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="11">
         <v>1</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="11">
         <v>1</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="11">
         <v>1</v>
       </c>
       <c r="J24">
@@ -1686,28 +1710,28 @@
         <v>4</v>
       </c>
       <c r="L24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M24">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="N24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AB24"/>
       <c r="AD24"/>
@@ -1720,55 +1744,55 @@
     </row>
     <row r="25" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="11">
         <v>1</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="11">
         <v>1</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="11">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K25">
         <v>4</v>
       </c>
       <c r="L25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M25">
-        <v>8.9999999999999993E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="N25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S25">
         <v>0.01</v>
@@ -1784,27 +1808,27 @@
     </row>
     <row r="26" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="11">
         <v>2</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="11">
         <v>2</v>
       </c>
       <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
+        <v>1E-3</v>
+      </c>
+      <c r="I26" s="11">
         <v>2</v>
       </c>
       <c r="J26">
@@ -1814,25 +1838,25 @@
         <v>4</v>
       </c>
       <c r="L26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M26">
-        <v>5.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="N26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S26">
         <v>0.01</v>
@@ -1848,58 +1872,58 @@
     </row>
     <row r="27" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="11">
         <v>1</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="11">
         <v>1</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="11">
         <v>1</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K27">
         <v>4</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M27">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="N27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AB27"/>
       <c r="AD27"/>
@@ -1912,28 +1936,28 @@
     </row>
     <row r="28" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="11">
         <v>1</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
-      <c r="G28">
-        <v>1</v>
+      <c r="G28" s="11">
+        <v>2</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
-      <c r="I28">
-        <v>1</v>
+      <c r="I28" s="11">
+        <v>2</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1941,29 +1965,29 @@
       <c r="K28">
         <v>4</v>
       </c>
-      <c r="L28">
-        <v>1.17</v>
+      <c r="L28" t="s">
+        <v>6</v>
       </c>
       <c r="M28">
-        <v>2E-3</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="N28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AB28"/>
       <c r="AD28"/>
@@ -1976,58 +2000,58 @@
     </row>
     <row r="29" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="11">
         <v>1</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="11">
         <v>1</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="11">
         <v>1</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K29">
         <v>4</v>
       </c>
       <c r="L29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M29">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="N29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AB29"/>
       <c r="AD29"/>
@@ -2040,27 +2064,27 @@
     </row>
     <row r="30" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="11">
         <v>1</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="11">
         <v>1</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="11">
         <v>1</v>
       </c>
       <c r="J30">
@@ -2070,28 +2094,28 @@
         <v>4</v>
       </c>
       <c r="L30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M30">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="N30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AB30"/>
       <c r="AD30"/>
@@ -2104,28 +2128,28 @@
     </row>
     <row r="31" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
-      <c r="E31">
-        <v>1</v>
+      <c r="E31" s="11">
+        <v>2</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="G31">
-        <v>1</v>
+      <c r="G31" s="11">
+        <v>2</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
-      <c r="I31">
-        <v>1</v>
+      <c r="I31" s="11">
+        <v>2</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2134,25 +2158,25 @@
         <v>4</v>
       </c>
       <c r="L31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M31">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="N31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -2168,27 +2192,27 @@
     </row>
     <row r="32" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="11">
         <v>1</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="11">
         <v>1</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="11">
         <v>1</v>
       </c>
       <c r="J32">
@@ -2198,28 +2222,28 @@
         <v>4</v>
       </c>
       <c r="L32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M32">
-        <v>2E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="N32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AB32"/>
       <c r="AD32"/>
@@ -2232,58 +2256,58 @@
     </row>
     <row r="33" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
-      <c r="E33">
-        <v>1</v>
+      <c r="E33" s="11">
+        <v>2</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
-      <c r="G33">
-        <v>1</v>
+      <c r="G33" s="11">
+        <v>2</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
-      <c r="I33">
-        <v>1</v>
+      <c r="I33" s="11">
+        <v>2</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K33">
         <v>4</v>
       </c>
       <c r="L33">
-        <v>1.1399999999999999</v>
+        <v>1.39</v>
       </c>
       <c r="M33">
-        <v>3.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="N33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AB33"/>
       <c r="AD33"/>
@@ -2296,58 +2320,58 @@
     </row>
     <row r="34" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="11">
         <v>1</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="11">
         <v>1</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="11">
         <v>1</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K34">
         <v>4</v>
       </c>
       <c r="L34">
-        <v>2.4</v>
+        <v>4.49</v>
       </c>
       <c r="M34">
-        <v>3.0000000000000001E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="N34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S34">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="AB34"/>
       <c r="AD34"/>
@@ -2360,58 +2384,58 @@
     </row>
     <row r="35" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
-      <c r="E35">
-        <v>3</v>
+      <c r="E35" s="11">
+        <v>1</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
-      <c r="G35">
-        <v>3</v>
+      <c r="G35" s="11">
+        <v>2</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
-      <c r="I35">
-        <v>3</v>
+      <c r="I35" s="11">
+        <v>2</v>
       </c>
       <c r="J35">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <v>4</v>
       </c>
       <c r="L35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M35">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="N35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AB35"/>
       <c r="AD35"/>
@@ -2424,58 +2448,58 @@
     </row>
     <row r="36" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="11">
         <v>1</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="11">
         <v>1</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="11">
         <v>1</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K36">
         <v>4</v>
       </c>
       <c r="L36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M36">
-        <v>2E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="N36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AB36"/>
       <c r="AD36"/>
@@ -2488,28 +2512,28 @@
     </row>
     <row r="37" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="11">
         <v>1</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
-      <c r="G37">
-        <v>1</v>
+      <c r="G37" s="11">
+        <v>2</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
-      <c r="I37">
-        <v>1</v>
+      <c r="I37" s="11">
+        <v>2</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2518,25 +2542,25 @@
         <v>4</v>
       </c>
       <c r="L37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M37">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="N37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S37">
         <v>0</v>
@@ -2552,27 +2576,27 @@
     </row>
     <row r="38" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="11">
         <v>1</v>
       </c>
       <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
+        <v>1E-3</v>
+      </c>
+      <c r="G38" s="11">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
+        <v>1E-3</v>
+      </c>
+      <c r="I38" s="11">
         <v>1</v>
       </c>
       <c r="J38">
@@ -2582,25 +2606,25 @@
         <v>4</v>
       </c>
       <c r="L38">
-        <v>0.21</v>
+        <v>0.47</v>
       </c>
       <c r="M38">
-        <v>3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="N38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S38">
         <v>0.01</v>
@@ -2616,58 +2640,58 @@
     </row>
     <row r="39" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
-      <c r="E39">
-        <v>1</v>
+      <c r="E39" s="11">
+        <v>2</v>
       </c>
       <c r="F39">
-        <v>0.01</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G39" s="11">
+        <v>2</v>
       </c>
       <c r="H39">
         <v>0.01</v>
       </c>
-      <c r="I39">
-        <v>1</v>
+      <c r="I39" s="11">
+        <v>2</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K39">
         <v>4</v>
       </c>
       <c r="L39">
-        <v>1.81</v>
+        <v>4.5</v>
       </c>
       <c r="M39">
-        <v>8.9999999999999993E-3</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="N39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S39">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="AB39"/>
       <c r="AD39"/>
@@ -2680,28 +2704,28 @@
     </row>
     <row r="40" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="11">
         <v>1</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
-      <c r="G40">
-        <v>1</v>
+      <c r="G40" s="11">
+        <v>2</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
-      <c r="I40">
-        <v>1</v>
+      <c r="I40" s="11">
+        <v>2</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2710,28 +2734,28 @@
         <v>4</v>
       </c>
       <c r="L40">
-        <v>0.5</v>
+        <v>2.63</v>
       </c>
       <c r="M40">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="N40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AB40"/>
       <c r="AD40"/>
@@ -2744,58 +2768,58 @@
     </row>
     <row r="41" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
-      <c r="E41">
-        <v>1</v>
+      <c r="E41" s="11">
+        <v>2</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
-      <c r="G41">
-        <v>1</v>
+      <c r="G41" s="11">
+        <v>2</v>
       </c>
       <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
+        <v>2E-3</v>
+      </c>
+      <c r="I41" s="11">
+        <v>2</v>
       </c>
       <c r="J41">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="K41">
         <v>4</v>
       </c>
       <c r="L41">
-        <v>0.9</v>
+        <v>1.75</v>
       </c>
       <c r="M41">
-        <v>1.2E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="N41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S41">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="AB41"/>
       <c r="AD41"/>
@@ -2808,28 +2832,28 @@
     </row>
     <row r="42" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
-      <c r="E42">
-        <v>1</v>
+      <c r="E42" s="11">
+        <v>2</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
-      <c r="G42">
-        <v>1</v>
+      <c r="G42" s="11">
+        <v>2</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
-      <c r="I42">
-        <v>1</v>
+      <c r="I42" s="11">
+        <v>2</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -2838,28 +2862,28 @@
         <v>4</v>
       </c>
       <c r="L42">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="M42">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="N42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S42">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AB42"/>
       <c r="AD42"/>
@@ -2872,28 +2896,28 @@
     </row>
     <row r="43" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="11">
         <v>1</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
-      <c r="G43">
-        <v>1</v>
+      <c r="G43" s="11">
+        <v>2</v>
       </c>
       <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
+        <v>1E-3</v>
+      </c>
+      <c r="I43" s="11">
+        <v>2</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2902,28 +2926,28 @@
         <v>4</v>
       </c>
       <c r="L43">
-        <v>1.46</v>
+        <v>1.17</v>
       </c>
       <c r="M43">
-        <v>3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="N43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S43">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AB43"/>
       <c r="AD43"/>
@@ -2936,28 +2960,28 @@
     </row>
     <row r="44" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="11">
         <v>1</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
-      <c r="G44">
-        <v>1</v>
+      <c r="G44" s="11">
+        <v>2</v>
       </c>
       <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
+        <v>2E-3</v>
+      </c>
+      <c r="I44" s="11">
+        <v>2</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -2965,26 +2989,26 @@
       <c r="K44">
         <v>4</v>
       </c>
-      <c r="L44">
-        <v>1.69</v>
+      <c r="L44" t="s">
+        <v>6</v>
       </c>
       <c r="M44">
-        <v>4.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="N44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S44">
         <v>0.01</v>
@@ -3000,58 +3024,58 @@
     </row>
     <row r="45" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="11">
         <v>1</v>
       </c>
       <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G45" s="11">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="I45" s="11">
         <v>1</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K45">
         <v>4</v>
       </c>
       <c r="L45">
-        <v>2.41</v>
+        <v>0.97</v>
       </c>
       <c r="M45">
-        <v>7.0000000000000001E-3</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="N45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S45">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="AB45"/>
       <c r="AD45"/>
@@ -3064,28 +3088,28 @@
     </row>
     <row r="46" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
-      <c r="E46">
-        <v>3</v>
+      <c r="E46" s="11">
+        <v>1</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
-      <c r="G46">
-        <v>3</v>
+      <c r="G46" s="11">
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>3</v>
+        <v>1E-3</v>
+      </c>
+      <c r="I46" s="11">
+        <v>1</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -3094,25 +3118,25 @@
         <v>4</v>
       </c>
       <c r="L46">
-        <v>1.99</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="M46">
-        <v>4.0000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="N46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S46">
         <v>0.01</v>
@@ -3128,111 +3152,111 @@
     </row>
     <row r="47" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
-      <c r="E47">
-        <v>1</v>
+      <c r="E47" s="11">
+        <v>2</v>
       </c>
       <c r="F47">
-        <v>0.27</v>
-      </c>
-      <c r="G47">
-        <v>29</v>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G47" s="11">
+        <v>2</v>
       </c>
       <c r="H47">
-        <v>0.27</v>
-      </c>
-      <c r="I47">
-        <v>29</v>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I47" s="11">
+        <v>2</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K47">
         <v>4</v>
       </c>
       <c r="L47">
-        <v>0.68</v>
+        <v>1.22</v>
       </c>
       <c r="M47">
-        <v>0.316</v>
+        <v>0.01</v>
       </c>
       <c r="N47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S47">
-        <v>0.32</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="48" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="11">
         <v>1</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="11">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
+        <v>1E-3</v>
+      </c>
+      <c r="I48" s="11">
         <v>1</v>
       </c>
       <c r="J48">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K48">
         <v>4</v>
       </c>
       <c r="L48">
-        <v>1.18</v>
+        <v>1.53</v>
       </c>
       <c r="M48">
-        <v>7.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="N48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S48">
         <v>0.01</v>
@@ -3240,492 +3264,2453 @@
     </row>
     <row r="49" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="11">
         <v>2</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="G49" s="11">
+        <v>19</v>
+      </c>
+      <c r="H49">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="I49" s="11">
+        <v>19</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>4</v>
+      </c>
+      <c r="L49">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="M49">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="N49" t="s">
+        <v>6</v>
+      </c>
+      <c r="O49" t="s">
+        <v>6</v>
+      </c>
+      <c r="P49" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>6</v>
+      </c>
+      <c r="R49" t="s">
+        <v>6</v>
+      </c>
+      <c r="S49">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" s="11">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1E-3</v>
+      </c>
+      <c r="G50" s="11">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I50" s="11">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0.5</v>
+      </c>
+      <c r="K50">
+        <v>4</v>
+      </c>
+      <c r="L50">
+        <v>1.54</v>
+      </c>
+      <c r="M50">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>6</v>
+      </c>
+      <c r="O50" t="s">
+        <v>6</v>
+      </c>
+      <c r="P50" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>6</v>
+      </c>
+      <c r="R50" t="s">
+        <v>6</v>
+      </c>
+      <c r="S50">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" s="11">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G51" s="11">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I51" s="11">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>8.75</v>
+      </c>
+      <c r="K51">
+        <v>4</v>
+      </c>
+      <c r="L51" t="s">
+        <v>6</v>
+      </c>
+      <c r="M51">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>6</v>
+      </c>
+      <c r="O51" t="s">
+        <v>6</v>
+      </c>
+      <c r="P51" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>6</v>
+      </c>
+      <c r="R51" t="s">
+        <v>6</v>
+      </c>
+      <c r="S51">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" s="11">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G52" s="11">
         <v>2</v>
       </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
+      <c r="H52">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I52" s="11">
         <v>2</v>
       </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>4</v>
-      </c>
-      <c r="L49" t="s">
-        <v>7</v>
-      </c>
-      <c r="M49">
-        <v>1.2E-2</v>
-      </c>
-      <c r="N49" t="s">
-        <v>7</v>
-      </c>
-      <c r="O49" t="s">
-        <v>7</v>
-      </c>
-      <c r="P49" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>7</v>
-      </c>
-      <c r="R49" t="s">
-        <v>7</v>
-      </c>
-      <c r="S49">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>384</v>
-      </c>
-      <c r="L51">
-        <v>1.4</v>
-      </c>
-      <c r="M51">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="N51">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="O51">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="P51">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="Q51">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="R51">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="S51">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>4</v>
-      </c>
-      <c r="F52">
-        <v>0.01</v>
-      </c>
-      <c r="G52">
-        <v>4</v>
-      </c>
-      <c r="H52">
-        <v>0.02</v>
-      </c>
-      <c r="I52">
-        <v>4</v>
-      </c>
       <c r="J52">
-        <v>2.36</v>
+        <v>0.25</v>
       </c>
       <c r="K52">
-        <v>384</v>
+        <v>4</v>
       </c>
       <c r="L52">
-        <v>0.87</v>
+        <v>1.07</v>
       </c>
       <c r="M52">
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="N52">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="O52">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="P52">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="Q52">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="R52">
-        <v>3.0000000000000001E-3</v>
+        <v>3.1E-2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>6</v>
+      </c>
+      <c r="O52" t="s">
+        <v>6</v>
+      </c>
+      <c r="P52" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>6</v>
+      </c>
+      <c r="R52" t="s">
+        <v>6</v>
       </c>
       <c r="S52">
-        <v>1.78</v>
-      </c>
-    </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
-      <c r="E53">
-        <v>4</v>
+      <c r="E53" s="11">
+        <v>2</v>
       </c>
       <c r="F53">
-        <v>0.01</v>
-      </c>
-      <c r="G53">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="G53" s="11">
+        <v>2</v>
       </c>
       <c r="H53">
-        <v>0.01</v>
-      </c>
-      <c r="I53">
-        <v>4</v>
+        <v>1.9E-2</v>
+      </c>
+      <c r="I53" s="11">
+        <v>2</v>
       </c>
       <c r="J53">
-        <v>3.09</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>384</v>
+        <v>4</v>
       </c>
       <c r="L53">
-        <v>0.85</v>
+        <v>0.16</v>
       </c>
       <c r="M53">
-        <v>0.65900000000000003</v>
-      </c>
-      <c r="N53">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="O53">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="P53">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="Q53">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="R53">
-        <v>3.0000000000000001E-3</v>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>6</v>
+      </c>
+      <c r="O53" t="s">
+        <v>6</v>
+      </c>
+      <c r="P53" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>6</v>
+      </c>
+      <c r="R53" t="s">
+        <v>6</v>
       </c>
       <c r="S53">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>7</v>
-      </c>
-      <c r="F54">
-        <v>0.01</v>
-      </c>
-      <c r="G54">
-        <v>7</v>
-      </c>
-      <c r="H54">
-        <v>0.01</v>
-      </c>
-      <c r="I54">
-        <v>7</v>
-      </c>
-      <c r="J54">
-        <v>0.49</v>
-      </c>
-      <c r="K54">
-        <v>384</v>
-      </c>
-      <c r="L54" t="s">
-        <v>7</v>
-      </c>
-      <c r="M54">
-        <v>0.221</v>
-      </c>
-      <c r="N54" t="s">
-        <v>7</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>7</v>
-      </c>
-      <c r="R54" t="s">
-        <v>7</v>
-      </c>
-      <c r="S54">
-        <v>0.79</v>
-      </c>
-    </row>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
-      <c r="E55">
-        <v>8</v>
+      <c r="E55" s="11">
+        <v>2</v>
       </c>
       <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>8</v>
+        <v>1E-3</v>
+      </c>
+      <c r="G55" s="11">
+        <v>2</v>
       </c>
       <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>8</v>
+        <v>1E-3</v>
+      </c>
+      <c r="I55" s="11">
+        <v>2</v>
       </c>
       <c r="J55">
-        <v>0.28999999999999998</v>
+        <v>0.02</v>
       </c>
       <c r="K55">
         <v>384</v>
       </c>
       <c r="L55">
-        <v>0.5</v>
+        <v>1.39</v>
       </c>
       <c r="M55">
-        <v>0.151</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="N55">
-        <v>3.6999999999999998E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="O55">
-        <v>1.4E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="P55">
-        <v>1.9E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="Q55">
-        <v>2.1000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="R55">
-        <v>0.04</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="S55">
-        <v>0.71</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="56" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
-      <c r="E56">
-        <v>8</v>
+      <c r="E56" s="11">
+        <v>2</v>
       </c>
       <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>8</v>
+        <v>0.01</v>
+      </c>
+      <c r="G56" s="11">
+        <v>4</v>
       </c>
       <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>8</v>
+        <v>1.4E-2</v>
+      </c>
+      <c r="I56" s="11">
+        <v>4</v>
       </c>
       <c r="J56">
-        <v>0.24</v>
+        <v>2.68</v>
       </c>
       <c r="K56">
         <v>384</v>
       </c>
       <c r="L56">
-        <v>1.08</v>
+        <v>0.83</v>
       </c>
       <c r="M56">
-        <v>0.18</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="N56">
-        <v>3.4000000000000002E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="O56">
-        <v>3.4000000000000002E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="P56">
-        <v>5.7999999999999996E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="Q56">
-        <v>3.4000000000000002E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="R56">
-        <v>4.1000000000000002E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="S56">
-        <v>0.87</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="57" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
-      <c r="E57">
-        <v>8</v>
+      <c r="E57" s="11">
+        <v>4</v>
       </c>
       <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>8</v>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G57" s="11">
+        <v>4</v>
       </c>
       <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>8</v>
+        <v>2.4E-2</v>
+      </c>
+      <c r="I57" s="11">
+        <v>4</v>
       </c>
       <c r="J57">
-        <v>1.22</v>
+        <v>3.28</v>
       </c>
       <c r="K57">
         <v>384</v>
       </c>
       <c r="L57">
-        <v>0.9</v>
+        <v>0.81</v>
       </c>
       <c r="M57">
-        <v>0.36</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="N57">
-        <v>4.1000000000000002E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="O57">
-        <v>4.9000000000000002E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="P57">
-        <v>7.6E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="Q57">
-        <v>4.4999999999999998E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="R57">
-        <v>4.2000000000000003E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="S57">
-        <v>1.02</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="58" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
-      <c r="E58">
-        <v>8</v>
+      <c r="E58" s="11">
+        <v>7</v>
       </c>
       <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>8</v>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G58" s="11">
+        <v>7</v>
       </c>
       <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>8</v>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="I58" s="11">
+        <v>7</v>
       </c>
       <c r="J58">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="K58">
         <v>384</v>
       </c>
-      <c r="L58">
+      <c r="L58" t="s">
+        <v>6</v>
+      </c>
+      <c r="M58">
+        <v>0.318</v>
+      </c>
+      <c r="N58" t="s">
+        <v>6</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>6</v>
+      </c>
+      <c r="R58" t="s">
+        <v>6</v>
+      </c>
+      <c r="S58">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" s="11">
+        <v>7</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59" s="11">
+        <v>7</v>
+      </c>
+      <c r="H59">
+        <v>1E-3</v>
+      </c>
+      <c r="I59" s="11">
+        <v>7</v>
+      </c>
+      <c r="J59">
+        <v>0.3</v>
+      </c>
+      <c r="K59">
+        <v>384</v>
+      </c>
+      <c r="L59">
+        <v>0.95</v>
+      </c>
+      <c r="M59">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="N59">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="O59">
+        <v>1.4E-2</v>
+      </c>
+      <c r="P59">
+        <v>1.9E-3</v>
+      </c>
+      <c r="Q59">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="R59">
+        <v>0.04</v>
+      </c>
+      <c r="S59">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" s="11">
+        <v>7</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60" s="11">
+        <v>7</v>
+      </c>
+      <c r="H60">
+        <v>1E-3</v>
+      </c>
+      <c r="I60" s="11">
+        <v>7</v>
+      </c>
+      <c r="J60">
+        <v>0.36</v>
+      </c>
+      <c r="K60">
+        <v>384</v>
+      </c>
+      <c r="L60">
+        <v>1.19</v>
+      </c>
+      <c r="M60">
+        <v>0.219</v>
+      </c>
+      <c r="N60">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="O60">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="P60">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="Q60">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="R60">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="S60">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" s="11">
+        <v>7</v>
+      </c>
+      <c r="F61">
+        <v>1E-3</v>
+      </c>
+      <c r="G61" s="11">
+        <v>7</v>
+      </c>
+      <c r="H61">
+        <v>2E-3</v>
+      </c>
+      <c r="I61" s="11">
+        <v>7</v>
+      </c>
+      <c r="J61">
+        <v>1.63</v>
+      </c>
+      <c r="K61">
+        <v>384</v>
+      </c>
+      <c r="L61">
+        <v>0.91</v>
+      </c>
+      <c r="M61">
+        <v>0.48</v>
+      </c>
+      <c r="N61">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="O61">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="P61">
+        <v>7.6E-3</v>
+      </c>
+      <c r="Q61">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R61">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S61">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" s="11">
+        <v>7</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62" s="11">
+        <v>7</v>
+      </c>
+      <c r="H62">
+        <v>1E-3</v>
+      </c>
+      <c r="I62" s="11">
+        <v>7</v>
+      </c>
+      <c r="J62">
+        <v>0.84</v>
+      </c>
+      <c r="K62">
+        <v>384</v>
+      </c>
+      <c r="L62">
+        <v>0.86</v>
+      </c>
+      <c r="M62">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="N62">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="O62">
+        <v>5.5E-2</v>
+      </c>
+      <c r="P62">
+        <v>7.6E-3</v>
+      </c>
+      <c r="Q62">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="R62">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="S62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" s="11">
+        <v>7</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" s="11">
+        <v>7</v>
+      </c>
+      <c r="H63">
+        <v>1E-3</v>
+      </c>
+      <c r="I63" s="11">
+        <v>7</v>
+      </c>
+      <c r="J63">
+        <v>0.71</v>
+      </c>
+      <c r="K63">
+        <v>384</v>
+      </c>
+      <c r="L63">
+        <v>0.89</v>
+      </c>
+      <c r="M63">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="N63">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="O63">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="P63">
+        <v>7.6E-3</v>
+      </c>
+      <c r="Q63">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="R63">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="S63">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" s="11">
+        <v>7</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" s="11">
+        <v>7</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64" s="11">
+        <v>7</v>
+      </c>
+      <c r="J64">
+        <v>0.16</v>
+      </c>
+      <c r="K64">
+        <v>384</v>
+      </c>
+      <c r="L64" t="s">
+        <v>6</v>
+      </c>
+      <c r="M64">
+        <v>0.152</v>
+      </c>
+      <c r="N64" t="s">
+        <v>6</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>6</v>
+      </c>
+      <c r="R64" t="s">
+        <v>6</v>
+      </c>
+      <c r="S64">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" s="11">
+        <v>7</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" s="11">
+        <v>7</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65" s="11">
+        <v>7</v>
+      </c>
+      <c r="J65">
+        <v>0.23</v>
+      </c>
+      <c r="K65">
+        <v>384</v>
+      </c>
+      <c r="L65">
+        <v>1.25</v>
+      </c>
+      <c r="M65">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="N65">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="O65">
+        <v>1.4E-2</v>
+      </c>
+      <c r="P65">
+        <v>1.9E-3</v>
+      </c>
+      <c r="Q65">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="R65">
+        <v>0.04</v>
+      </c>
+      <c r="S65">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" s="11">
+        <v>7</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" s="11">
+        <v>7</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66" s="11">
+        <v>7</v>
+      </c>
+      <c r="J66">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K66">
+        <v>384</v>
+      </c>
+      <c r="L66">
+        <v>0.93</v>
+      </c>
+      <c r="M66">
+        <v>0.19</v>
+      </c>
+      <c r="N66">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="O66">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="P66">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="Q66">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="R66">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="S66">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67" s="11">
+        <v>7</v>
+      </c>
+      <c r="F67">
+        <v>1E-3</v>
+      </c>
+      <c r="G67" s="11">
+        <v>7</v>
+      </c>
+      <c r="H67">
+        <v>1E-3</v>
+      </c>
+      <c r="I67" s="11">
+        <v>7</v>
+      </c>
+      <c r="J67">
+        <v>1.18</v>
+      </c>
+      <c r="K67">
+        <v>384</v>
+      </c>
+      <c r="L67">
+        <v>0.92</v>
+      </c>
+      <c r="M67">
+        <v>0.37</v>
+      </c>
+      <c r="N67">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="O67">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="P67">
+        <v>7.6E-3</v>
+      </c>
+      <c r="Q67">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R67">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S67">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" s="11">
+        <v>7</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68" s="11">
+        <v>7</v>
+      </c>
+      <c r="H68">
+        <v>1E-3</v>
+      </c>
+      <c r="I68" s="11">
+        <v>7</v>
+      </c>
+      <c r="J68">
+        <v>0.99</v>
+      </c>
+      <c r="K68">
+        <v>384</v>
+      </c>
+      <c r="L68">
+        <v>0.91</v>
+      </c>
+      <c r="M68">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="N68">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="O68">
+        <v>5.5E-2</v>
+      </c>
+      <c r="P68">
+        <v>7.6E-3</v>
+      </c>
+      <c r="Q68">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="R68">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="S68">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69" s="11">
+        <v>7</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69" s="11">
+        <v>7</v>
+      </c>
+      <c r="H69">
+        <v>1E-3</v>
+      </c>
+      <c r="I69" s="11">
+        <v>7</v>
+      </c>
+      <c r="J69">
+        <v>0.76</v>
+      </c>
+      <c r="K69">
+        <v>384</v>
+      </c>
+      <c r="L69">
+        <v>0.99</v>
+      </c>
+      <c r="M69">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="N69">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="O69">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="P69">
+        <v>7.6E-3</v>
+      </c>
+      <c r="Q69">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="R69">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="S69">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70" s="11">
+        <v>7</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70" s="11">
+        <v>7</v>
+      </c>
+      <c r="H70">
+        <v>1E-3</v>
+      </c>
+      <c r="I70" s="11">
+        <v>7</v>
+      </c>
+      <c r="J70">
+        <v>0.32</v>
+      </c>
+      <c r="K70">
+        <v>384</v>
+      </c>
+      <c r="L70" t="s">
+        <v>6</v>
+      </c>
+      <c r="M70">
+        <v>0.21</v>
+      </c>
+      <c r="N70" t="s">
+        <v>6</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>6</v>
+      </c>
+      <c r="R70" t="s">
+        <v>6</v>
+      </c>
+      <c r="S70">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71" s="11">
+        <v>7</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71" s="11">
+        <v>7</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71" s="11">
+        <v>7</v>
+      </c>
+      <c r="J71">
+        <v>0.17</v>
+      </c>
+      <c r="K71">
+        <v>384</v>
+      </c>
+      <c r="L71">
+        <v>0.5</v>
+      </c>
+      <c r="M71">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="N71">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="O71">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="P71">
+        <v>1E-3</v>
+      </c>
+      <c r="Q71">
+        <v>0.01</v>
+      </c>
+      <c r="R71">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S71">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72" s="11">
+        <v>7</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72" s="11">
+        <v>7</v>
+      </c>
+      <c r="H72">
+        <v>1E-3</v>
+      </c>
+      <c r="I72" s="11">
+        <v>7</v>
+      </c>
+      <c r="J72">
+        <v>0.23</v>
+      </c>
+      <c r="K72">
+        <v>384</v>
+      </c>
+      <c r="L72">
+        <v>0.99</v>
+      </c>
+      <c r="M72">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="N72">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="O72">
+        <v>2.7E-2</v>
+      </c>
+      <c r="P72">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="Q72">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="R72">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="S72">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" s="11">
+        <v>7</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73" s="11">
+        <v>7</v>
+      </c>
+      <c r="H73">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I73" s="11">
+        <v>7</v>
+      </c>
+      <c r="J73">
+        <v>2.64</v>
+      </c>
+      <c r="K73">
+        <v>384</v>
+      </c>
+      <c r="L73">
+        <v>0.88</v>
+      </c>
+      <c r="M73">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="N73">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="O73">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="P73">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="Q73">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="R73">
+        <v>3.1E-2</v>
+      </c>
+      <c r="S73">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74" s="11">
+        <v>7</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74" s="11">
+        <v>7</v>
+      </c>
+      <c r="H74">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I74" s="11">
+        <v>7</v>
+      </c>
+      <c r="J74">
+        <v>1.45</v>
+      </c>
+      <c r="K74">
+        <v>384</v>
+      </c>
+      <c r="L74">
+        <v>0.87</v>
+      </c>
+      <c r="M74">
+        <v>0.437</v>
+      </c>
+      <c r="N74">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="O74">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="P74">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="Q74">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="R74">
+        <v>3.1E-2</v>
+      </c>
+      <c r="S74">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75" s="11">
+        <v>7</v>
+      </c>
+      <c r="F75">
+        <v>1E-3</v>
+      </c>
+      <c r="G75" s="11">
+        <v>7</v>
+      </c>
+      <c r="H75">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I75" s="11">
+        <v>7</v>
+      </c>
+      <c r="J75">
+        <v>1.64</v>
+      </c>
+      <c r="K75">
+        <v>384</v>
+      </c>
+      <c r="L75">
+        <v>0.89</v>
+      </c>
+      <c r="M75">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="N75">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="O75">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="P75">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="Q75">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="R75">
+        <v>3.1E-2</v>
+      </c>
+      <c r="S75">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76" s="11">
+        <v>7</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76" s="11">
+        <v>7</v>
+      </c>
+      <c r="H76">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I76" s="11">
+        <v>7</v>
+      </c>
+      <c r="J76">
+        <v>0.16</v>
+      </c>
+      <c r="K76">
+        <v>384</v>
+      </c>
+      <c r="L76" t="s">
+        <v>6</v>
+      </c>
+      <c r="M76">
+        <v>0.17</v>
+      </c>
+      <c r="N76" t="s">
+        <v>6</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>6</v>
+      </c>
+      <c r="R76" t="s">
+        <v>6</v>
+      </c>
+      <c r="S76">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77" s="11">
+        <v>7</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77" s="11">
+        <v>7</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77" s="11">
+        <v>7</v>
+      </c>
+      <c r="J77">
+        <v>0.17</v>
+      </c>
+      <c r="K77">
+        <v>384</v>
+      </c>
+      <c r="L77">
+        <v>0.83</v>
+      </c>
+      <c r="M77">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="N77">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="O77">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="P77">
+        <v>1E-3</v>
+      </c>
+      <c r="Q77">
+        <v>0.01</v>
+      </c>
+      <c r="R77">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S77">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="78" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78" s="11">
+        <v>7</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78" s="11">
+        <v>7</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78" s="11">
+        <v>7</v>
+      </c>
+      <c r="J78">
+        <v>0.2</v>
+      </c>
+      <c r="K78">
+        <v>384</v>
+      </c>
+      <c r="L78">
+        <v>0.82</v>
+      </c>
+      <c r="M78">
+        <v>0.189</v>
+      </c>
+      <c r="N78">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="O78">
+        <v>2.7E-2</v>
+      </c>
+      <c r="P78">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="Q78">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="R78">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="S78">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79" s="11">
+        <v>7</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79" s="11">
+        <v>7</v>
+      </c>
+      <c r="H79">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I79" s="11">
+        <v>7</v>
+      </c>
+      <c r="J79">
+        <v>1.62</v>
+      </c>
+      <c r="K79">
+        <v>384</v>
+      </c>
+      <c r="L79">
         <v>0.85</v>
       </c>
-      <c r="M58">
-        <v>0.246</v>
+      <c r="M79">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="N79">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="O79">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="P79">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="Q79">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="R79">
+        <v>3.1E-2</v>
+      </c>
+      <c r="S79">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80" s="11">
+        <v>7</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80" s="11">
+        <v>7</v>
+      </c>
+      <c r="H80">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I80" s="11">
+        <v>7</v>
+      </c>
+      <c r="J80">
+        <v>1.99</v>
+      </c>
+      <c r="K80">
+        <v>384</v>
+      </c>
+      <c r="L80">
+        <v>0.91</v>
+      </c>
+      <c r="M80">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="N80">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="O80">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="P80">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="Q80">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="R80">
+        <v>3.1E-2</v>
+      </c>
+      <c r="S80">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="81" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81" s="11">
+        <v>7</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81" s="11">
+        <v>7</v>
+      </c>
+      <c r="H81">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I81" s="11">
+        <v>7</v>
+      </c>
+      <c r="J81">
+        <v>1.9</v>
+      </c>
+      <c r="K81">
+        <v>384</v>
+      </c>
+      <c r="L81">
+        <v>0.81</v>
+      </c>
+      <c r="M81">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="N81">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="O81">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="P81">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="Q81">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="R81">
+        <v>3.1E-2</v>
+      </c>
+      <c r="S81">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="82" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82" s="11">
+        <v>7</v>
+      </c>
+      <c r="F82">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G82" s="11">
+        <v>7</v>
+      </c>
+      <c r="H82">
+        <v>3.9E-2</v>
+      </c>
+      <c r="I82" s="11">
+        <v>7</v>
+      </c>
+      <c r="J82">
+        <v>10.06</v>
+      </c>
+      <c r="K82">
+        <v>384</v>
+      </c>
+      <c r="L82">
+        <v>0.9</v>
+      </c>
+      <c r="M82">
+        <v>3.996</v>
+      </c>
+      <c r="N82">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="O82">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="P82">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="Q82">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="R82">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="S82">
+        <v>6.27</v>
+      </c>
+    </row>
+    <row r="83" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83" s="11">
+        <v>5</v>
+      </c>
+      <c r="F83">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="G83" s="11">
+        <v>16</v>
+      </c>
+      <c r="H83">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="I83" s="11">
+        <v>16</v>
+      </c>
+      <c r="J83">
+        <v>41.12</v>
+      </c>
+      <c r="K83">
+        <v>384</v>
+      </c>
+      <c r="L83">
+        <v>1.22</v>
+      </c>
+      <c r="M83">
+        <v>8.1519999999999992</v>
+      </c>
+      <c r="N83">
+        <v>2.3E-2</v>
+      </c>
+      <c r="O83">
+        <v>0.03</v>
+      </c>
+      <c r="P83">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="Q83">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="R83">
+        <v>3.1E-2</v>
+      </c>
+      <c r="S83">
+        <v>13.76</v>
+      </c>
+    </row>
+    <row r="84" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84" s="11">
+        <v>5</v>
+      </c>
+      <c r="F84">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="G84" s="11">
+        <v>15</v>
+      </c>
+      <c r="H84">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="I84" s="11">
+        <v>18</v>
+      </c>
+      <c r="J84">
+        <v>40.03</v>
+      </c>
+      <c r="K84">
+        <v>384</v>
+      </c>
+      <c r="L84">
+        <v>1.2</v>
+      </c>
+      <c r="M84">
+        <v>7.9219999999999997</v>
+      </c>
+      <c r="N84">
+        <v>2.3E-2</v>
+      </c>
+      <c r="O84">
+        <v>0.03</v>
+      </c>
+      <c r="P84">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="Q84">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="R84">
+        <v>3.1E-2</v>
+      </c>
+      <c r="S84">
+        <v>14.31</v>
+      </c>
+    </row>
+    <row r="85" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85" s="11">
+        <v>6</v>
+      </c>
+      <c r="F85">
+        <v>0.115</v>
+      </c>
+      <c r="G85" s="11">
+        <v>17</v>
+      </c>
+      <c r="H85">
+        <v>0.124</v>
+      </c>
+      <c r="I85" s="11">
+        <v>17</v>
+      </c>
+      <c r="J85">
+        <v>41.2</v>
+      </c>
+      <c r="K85">
+        <v>384</v>
+      </c>
+      <c r="L85">
+        <v>0.85</v>
+      </c>
+      <c r="M85">
+        <v>8.1690000000000005</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>6</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>13.58</v>
+      </c>
+    </row>
+    <row r="86" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86" s="11">
+        <v>5</v>
+      </c>
+      <c r="F86">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G86" s="11">
+        <v>16</v>
+      </c>
+      <c r="H86">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="I86" s="11">
+        <v>16</v>
+      </c>
+      <c r="J86">
+        <v>40.21</v>
+      </c>
+      <c r="K86">
+        <v>384</v>
+      </c>
+      <c r="L86">
+        <v>0.84</v>
+      </c>
+      <c r="M86">
+        <v>7.9390000000000001</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>6</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="87" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87" s="11">
+        <v>3</v>
+      </c>
+      <c r="F87">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="G87" s="11">
+        <v>14</v>
+      </c>
+      <c r="H87">
+        <v>0.1</v>
+      </c>
+      <c r="I87" s="11">
+        <v>16</v>
+      </c>
+      <c r="J87">
+        <v>39.380000000000003</v>
+      </c>
+      <c r="K87">
+        <v>384</v>
+      </c>
+      <c r="L87">
+        <v>0.87</v>
+      </c>
+      <c r="M87">
+        <v>7.8129999999999997</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>6</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>12.97</v>
+      </c>
+    </row>
+    <row r="88" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88" s="11">
+        <v>2</v>
+      </c>
+      <c r="F88">
+        <v>0.1</v>
+      </c>
+      <c r="G88" s="11">
+        <v>14</v>
+      </c>
+      <c r="H88">
+        <v>0.111</v>
+      </c>
+      <c r="I88" s="11">
+        <v>15</v>
+      </c>
+      <c r="J88">
+        <v>42.57</v>
+      </c>
+      <c r="K88">
+        <v>384</v>
+      </c>
+      <c r="L88">
+        <v>0.84</v>
+      </c>
+      <c r="M88">
+        <v>8.4410000000000007</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>6</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>14.49</v>
+      </c>
+    </row>
+    <row r="89" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89" s="11">
+        <v>2</v>
+      </c>
+      <c r="F89">
+        <v>0.217</v>
+      </c>
+      <c r="G89" s="11">
+        <v>19</v>
+      </c>
+      <c r="H89">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="I89" s="11">
+        <v>21</v>
+      </c>
+      <c r="J89">
+        <v>42.72</v>
+      </c>
+      <c r="K89">
+        <v>384</v>
+      </c>
+      <c r="L89">
+        <v>0.88</v>
+      </c>
+      <c r="M89">
+        <v>8.6240000000000006</v>
+      </c>
+      <c r="N89">
+        <v>2.3E-2</v>
+      </c>
+      <c r="O89">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="P89">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="Q89">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="R89">
+        <v>2.3E-2</v>
+      </c>
+      <c r="S89">
+        <v>15.15</v>
+      </c>
+    </row>
+    <row r="90" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90" s="11">
+        <v>2</v>
+      </c>
+      <c r="F90">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="G90" s="11">
+        <v>18</v>
+      </c>
+      <c r="H90">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="I90" s="11">
+        <v>21</v>
+      </c>
+      <c r="J90">
+        <v>46.97</v>
+      </c>
+      <c r="K90">
+        <v>384</v>
+      </c>
+      <c r="L90">
+        <v>0.77</v>
+      </c>
+      <c r="M90">
+        <v>9.2729999999999997</v>
+      </c>
+      <c r="N90">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="O90">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="P90">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="Q90">
+        <v>2.7E-2</v>
+      </c>
+      <c r="R90">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="S90">
+        <v>15.64</v>
+      </c>
+    </row>
+    <row r="91" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91" s="11">
+        <v>5</v>
+      </c>
+      <c r="F91">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="G91" s="11">
+        <v>27</v>
+      </c>
+      <c r="H91">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="I91" s="11">
+        <v>27</v>
+      </c>
+      <c r="J91">
+        <v>6.72</v>
+      </c>
+      <c r="K91">
+        <v>384</v>
+      </c>
+      <c r="L91">
+        <v>0.9</v>
+      </c>
+      <c r="M91">
+        <v>1.841</v>
+      </c>
+      <c r="N91">
+        <v>1E-3</v>
+      </c>
+      <c r="O91">
+        <v>2E-3</v>
+      </c>
+      <c r="P91">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="Q91">
+        <v>2E-3</v>
+      </c>
+      <c r="R91">
+        <v>2E-3</v>
+      </c>
+      <c r="S91">
+        <v>17.73</v>
+      </c>
+    </row>
+    <row r="92" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92" s="11">
+        <v>8</v>
+      </c>
+      <c r="F92">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G92" s="11">
+        <v>28</v>
+      </c>
+      <c r="H92">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="I92" s="11">
+        <v>28</v>
+      </c>
+      <c r="J92">
+        <v>6.82</v>
+      </c>
+      <c r="K92">
+        <v>384</v>
+      </c>
+      <c r="L92">
+        <v>0.89</v>
+      </c>
+      <c r="M92">
+        <v>1.609</v>
+      </c>
+      <c r="N92">
+        <v>1E-3</v>
+      </c>
+      <c r="O92">
+        <v>2E-3</v>
+      </c>
+      <c r="P92">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="Q92">
+        <v>2E-3</v>
+      </c>
+      <c r="R92">
+        <v>2E-3</v>
+      </c>
+      <c r="S92">
+        <v>17.420000000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93" s="11">
+        <v>6</v>
+      </c>
+      <c r="F93">
+        <v>1.1759999999999999</v>
+      </c>
+      <c r="G93" s="11">
+        <v>38</v>
+      </c>
+      <c r="H93">
+        <v>1.18</v>
+      </c>
+      <c r="I93" s="11">
+        <v>38</v>
+      </c>
+      <c r="J93">
+        <v>1.96</v>
+      </c>
+      <c r="K93">
+        <v>384</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>2.8530000000000002</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AB50:AB1048576 AB3:AB4">
+  <conditionalFormatting sqref="AB54:AB1048576 AB3:AB4">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -3737,7 +5722,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD50:AD1048576 AD3:AD4">
+  <conditionalFormatting sqref="AD54:AD1048576 AD3:AD4">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -3749,7 +5734,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD50:AD1048576 AD3:AD4">
+  <conditionalFormatting sqref="AD54:AD1048576 AD3:AD4">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -3761,7 +5746,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF50:AF1048576 AF3:AF4">
+  <conditionalFormatting sqref="AF54:AF1048576 AF3:AF4">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -3773,7 +5758,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH50:AH1048576 AH3:AH4">
+  <conditionalFormatting sqref="AH54:AH1048576 AH3:AH4">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -3785,7 +5770,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI50:AI1048576 AI3:AI4">
+  <conditionalFormatting sqref="AI54:AI1048576 AI3:AI4">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -3797,7 +5782,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L10 L50:L1048576">
+  <conditionalFormatting sqref="L3:L10 L54:L1048576">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -3809,7 +5794,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N10 N50:N1048576">
+  <conditionalFormatting sqref="N3:N10 N54:N1048576">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -3821,7 +5806,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O10 O50:O1048576">
+  <conditionalFormatting sqref="O3:O10 O54:O1048576">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -3833,7 +5818,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P10 P50:P1048576">
+  <conditionalFormatting sqref="P3:P10 P54:P1048576">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -3845,7 +5830,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q10 Q50:Q1048576">
+  <conditionalFormatting sqref="Q3:Q10 Q54:Q1048576">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -3857,7 +5842,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J10 J50:J1048576">
+  <conditionalFormatting sqref="J3:J10 J54:J1048576">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -3869,7 +5854,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R10 R50:R1048576">
+  <conditionalFormatting sqref="R3:R10 R54:R1048576">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>

--- a/PerformanceTests/results/viewer.xlsx
+++ b/PerformanceTests/results/viewer.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="evaluation_results_May_11__2014_11_36_04_PM" localSheetId="0">Sheet1!$B$5:$T$93</definedName>
+    <definedName name="evaluation_results_May_11__2014_11_36_04_PM" localSheetId="0">Sheet1!$B$5:$V$102</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -21,7 +21,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="evaluation-results-May 11, 2014 11_36_04 PM" type="6" refreshedVersion="4" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="D:\Projecten\Mahout-proeftuin\PerformanceTests-0.8\results\evaluation-results-May 22, 2014 3_21_14 PM.csv" tab="0" comma="1">
+    <textPr codePage="437" sourceFile="D:\Projecten\Mahout-proeftuin\PerformanceTests\results\evaluation-results-May 24, 2014 10_47_21 PM.csv" tab="0" comma="1">
       <textFields count="14">
         <textField/>
         <textField/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="79">
   <si>
     <t>data set</t>
   </si>
@@ -73,9 +73,6 @@
     <t>ItemUserAverage</t>
   </si>
   <si>
-    <t>UB Spearman</t>
-  </si>
-  <si>
     <t>IB Pearson</t>
   </si>
   <si>
@@ -190,70 +187,100 @@
     <t>This is an Excel viewer for a csv results file, with color codings.</t>
   </si>
   <si>
+    <t>UB Pearson 1nn</t>
+  </si>
+  <si>
+    <t>UB PearsonW 1nn</t>
+  </si>
+  <si>
+    <t>UB Euclidian 1nn</t>
+  </si>
+  <si>
+    <t>UB EuclidianW 1nn</t>
+  </si>
+  <si>
+    <t>KnnItemBased</t>
+  </si>
+  <si>
+    <t>You can update the source file via Data-&gt;Refresh. Note that sometimes, Excel locks a part of the file and a write conflict can occur if Java is still writing.</t>
+  </si>
+  <si>
+    <t>mem</t>
+  </si>
+  <si>
+    <t>1st rec (s)</t>
+  </si>
+  <si>
+    <t>2nd rec (s)</t>
+  </si>
+  <si>
+    <t>avg time</t>
+  </si>
+  <si>
+    <t>ct</t>
+  </si>
+  <si>
+    <t>av abs dif</t>
+  </si>
+  <si>
+    <t>F1 msr</t>
+  </si>
+  <si>
+    <t>dur (s)</t>
+  </si>
+  <si>
+    <t>prec</t>
+  </si>
+  <si>
+    <t>BookCrossing</t>
+  </si>
+  <si>
+    <t>KddCupTrack1</t>
+  </si>
+  <si>
+    <t>TreeClustering2</t>
+  </si>
+  <si>
+    <t>BIB Pearson</t>
+  </si>
+  <si>
+    <t>BIB Euclidian</t>
+  </si>
+  <si>
+    <t>UB Spearman th.5</t>
+  </si>
+  <si>
+    <t>UB Spearman th.7</t>
+  </si>
+  <si>
+    <t>UB Spearman th.9</t>
+  </si>
+  <si>
+    <t>SVG_ALS</t>
+  </si>
+  <si>
+    <t>SVD_FUNK</t>
+  </si>
+  <si>
+    <t>SVD_ILR</t>
+  </si>
+  <si>
+    <t>SVD_PlusPlus</t>
+  </si>
+  <si>
+    <t>SVD_PSGD</t>
+  </si>
+  <si>
+    <t>SVD_RSGD</t>
+  </si>
+  <si>
     <t>3641 Mb</t>
   </si>
   <si>
-    <t>UB Pearson 1nn</t>
-  </si>
-  <si>
-    <t>UB PearsonW 1nn</t>
-  </si>
-  <si>
-    <t>UB Euclidian 1nn</t>
-  </si>
-  <si>
-    <t>UB EuclidianW 1nn</t>
-  </si>
-  <si>
-    <t>SVG</t>
-  </si>
-  <si>
-    <t>KnnItemBased</t>
-  </si>
-  <si>
-    <t>You can update the source file via Data-&gt;Refresh. Note that sometimes, Excel locks a part of the file and a write conflict can occur if Java is still writing.</t>
-  </si>
-  <si>
-    <t>mem</t>
-  </si>
-  <si>
-    <t>1st rec (s)</t>
-  </si>
-  <si>
-    <t>2nd rec (s)</t>
-  </si>
-  <si>
-    <t>avg time</t>
-  </si>
-  <si>
-    <t>ct</t>
-  </si>
-  <si>
-    <t>av abs dif</t>
-  </si>
-  <si>
-    <t>F1 msr</t>
-  </si>
-  <si>
-    <t>dur (s)</t>
-  </si>
-  <si>
-    <t>prec</t>
-  </si>
-  <si>
-    <t>BookCrossing</t>
-  </si>
-  <si>
-    <t>KddCupTrack1</t>
-  </si>
-  <si>
-    <t>TreeClustering2</t>
-  </si>
-  <si>
-    <t>BIB Pearson</t>
-  </si>
-  <si>
-    <t>BIB Euclidian</t>
+    <t>rank score</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dur (s)</t>
   </si>
 </sst>
 </file>
@@ -641,10 +668,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AK93"/>
+  <dimension ref="B2:AM102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A54" sqref="A11:XFD54"/>
+      <pane ySplit="525" topLeftCell="A64" activePane="bottomLeft"/>
+      <selection activeCell="Q14" sqref="Q14"/>
+      <selection pane="bottomLeft" activeCell="L74" sqref="L74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,27 +687,30 @@
     <col min="8" max="8" width="10.28515625" customWidth="1"/>
     <col min="9" max="9" width="6" style="11" customWidth="1"/>
     <col min="10" max="10" width="8.5703125" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" customWidth="1"/>
     <col min="13" max="13" width="6.85546875" customWidth="1"/>
-    <col min="14" max="15" width="6.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" customWidth="1"/>
     <col min="16" max="16" width="7.7109375" customWidth="1"/>
-    <col min="17" max="17" width="7" customWidth="1"/>
-    <col min="18" max="18" width="6.7109375" customWidth="1"/>
-    <col min="19" max="19" width="6.85546875" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" customWidth="1"/>
-    <col min="21" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.5703125" style="2"/>
-    <col min="30" max="31" width="5.5703125" style="1"/>
-    <col min="33" max="33" width="5.5703125" style="3"/>
-    <col min="34" max="36" width="5.5703125" style="2"/>
-    <col min="37" max="37" width="5.5703125" style="3"/>
+    <col min="17" max="17" width="6.7109375" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" customWidth="1"/>
+    <col min="19" max="19" width="7" customWidth="1"/>
+    <col min="20" max="20" width="6.7109375" customWidth="1"/>
+    <col min="21" max="21" width="6.85546875" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" customWidth="1"/>
+    <col min="23" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.5703125" style="2"/>
+    <col min="32" max="33" width="5.5703125" style="1"/>
+    <col min="35" max="35" width="5.5703125" style="3"/>
+    <col min="36" max="38" width="5.5703125" style="2"/>
+    <col min="39" max="39" width="5.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="5"/>
@@ -694,9 +726,9 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="5"/>
@@ -712,81 +744,81 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="5" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB5"/>
       <c r="AD5"/>
-      <c r="AE5"/>
+      <c r="AF5"/>
       <c r="AG5"/>
-      <c r="AH5"/>
       <c r="AI5"/>
       <c r="AJ5"/>
       <c r="AK5"/>
-    </row>
-    <row r="6" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL5"/>
+      <c r="AM5"/>
+    </row>
+    <row r="6" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB6"/>
       <c r="AD6"/>
-      <c r="AE6"/>
+      <c r="AF6"/>
       <c r="AG6"/>
-      <c r="AH6"/>
       <c r="AI6"/>
       <c r="AJ6"/>
       <c r="AK6"/>
-    </row>
-    <row r="7" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL6"/>
+      <c r="AM6"/>
+    </row>
+    <row r="7" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="8">
         <v>64</v>
       </c>
-      <c r="AB7"/>
       <c r="AD7"/>
-      <c r="AE7"/>
+      <c r="AF7"/>
       <c r="AG7"/>
-      <c r="AH7"/>
       <c r="AI7"/>
       <c r="AJ7"/>
       <c r="AK7"/>
-    </row>
-    <row r="8" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL7"/>
+      <c r="AM7"/>
+    </row>
+    <row r="8" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB8"/>
+        <v>76</v>
+      </c>
       <c r="AD8"/>
-      <c r="AE8"/>
+      <c r="AF8"/>
       <c r="AG8"/>
-      <c r="AH8"/>
       <c r="AI8"/>
       <c r="AJ8"/>
       <c r="AK8"/>
-    </row>
-    <row r="9" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="AB9"/>
+      <c r="AL8"/>
+      <c r="AM8"/>
+    </row>
+    <row r="9" spans="2:39" x14ac:dyDescent="0.25">
       <c r="AD9"/>
-      <c r="AE9"/>
+      <c r="AF9"/>
       <c r="AG9"/>
-      <c r="AH9"/>
       <c r="AI9"/>
       <c r="AJ9"/>
       <c r="AK9"/>
-    </row>
-    <row r="10" spans="2:37" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AL9"/>
+      <c r="AM9"/>
+    </row>
+    <row r="10" spans="2:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>0</v>
       </c>
@@ -797,56 +829,62 @@
         <v>2</v>
       </c>
       <c r="E10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="K10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="L10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="6" t="s">
+      <c r="M10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="T10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="U10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="R10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="U10"/>
-      <c r="V10"/>
       <c r="W10"/>
       <c r="X10"/>
-    </row>
-    <row r="11" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y10"/>
+      <c r="Z10"/>
+    </row>
+    <row r="11" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -857,16 +895,16 @@
         <v>0</v>
       </c>
       <c r="E11" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.01</v>
+        <v>1.6E-2</v>
       </c>
       <c r="G11" s="11">
         <v>4</v>
       </c>
       <c r="H11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <v>5</v>
@@ -878,16 +916,16 @@
         <v>4</v>
       </c>
       <c r="L11">
-        <v>1.77</v>
+        <v>1.51</v>
       </c>
       <c r="M11">
-        <v>0.114</v>
-      </c>
-      <c r="N11" t="s">
-        <v>6</v>
-      </c>
-      <c r="O11" t="s">
-        <v>6</v>
+        <v>1.4E-2</v>
+      </c>
+      <c r="N11">
+        <v>0.83</v>
+      </c>
+      <c r="O11">
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="P11" t="s">
         <v>6</v>
@@ -898,19 +936,25 @@
       <c r="R11" t="s">
         <v>6</v>
       </c>
-      <c r="S11">
-        <v>0.12</v>
-      </c>
-      <c r="AB11"/>
+      <c r="S11" t="s">
+        <v>6</v>
+      </c>
+      <c r="T11" t="s">
+        <v>6</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
       <c r="AD11"/>
-      <c r="AE11"/>
+      <c r="AF11"/>
       <c r="AG11"/>
-      <c r="AH11"/>
       <c r="AI11"/>
       <c r="AJ11"/>
       <c r="AK11"/>
-    </row>
-    <row r="12" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AL11"/>
+      <c r="AM11"/>
+    </row>
+    <row r="12" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>4</v>
       </c>
@@ -930,7 +974,7 @@
         <v>2</v>
       </c>
       <c r="H12">
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <v>2</v>
@@ -942,16 +986,16 @@
         <v>4</v>
       </c>
       <c r="L12">
-        <v>0.92</v>
+        <v>2.64</v>
       </c>
       <c r="M12">
-        <v>1.6E-2</v>
-      </c>
-      <c r="N12" t="s">
-        <v>6</v>
-      </c>
-      <c r="O12" t="s">
-        <v>6</v>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="P12" t="s">
         <v>6</v>
@@ -962,19 +1006,25 @@
       <c r="R12" t="s">
         <v>6</v>
       </c>
-      <c r="S12">
-        <v>0.02</v>
-      </c>
-      <c r="AB12"/>
+      <c r="S12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T12" t="s">
+        <v>6</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
       <c r="AD12"/>
-      <c r="AE12"/>
+      <c r="AF12"/>
       <c r="AG12"/>
-      <c r="AH12"/>
       <c r="AI12"/>
       <c r="AJ12"/>
       <c r="AK12"/>
-    </row>
-    <row r="13" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AL12"/>
+      <c r="AM12"/>
+    </row>
+    <row r="13" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -994,29 +1044,29 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="K13">
         <v>4</v>
       </c>
       <c r="L13">
-        <v>2.4300000000000002</v>
+        <v>2.13</v>
       </c>
       <c r="M13">
+        <v>1.2E-2</v>
+      </c>
+      <c r="N13">
+        <v>0.75</v>
+      </c>
+      <c r="O13">
         <v>0.01</v>
       </c>
-      <c r="N13" t="s">
-        <v>6</v>
-      </c>
-      <c r="O13" t="s">
-        <v>6</v>
-      </c>
       <c r="P13" t="s">
         <v>6</v>
       </c>
@@ -1026,24 +1076,30 @@
       <c r="R13" t="s">
         <v>6</v>
       </c>
-      <c r="S13">
-        <v>0.01</v>
-      </c>
-      <c r="AB13"/>
+      <c r="S13" t="s">
+        <v>6</v>
+      </c>
+      <c r="T13" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
       <c r="AD13"/>
-      <c r="AE13"/>
+      <c r="AF13"/>
       <c r="AG13"/>
-      <c r="AH13"/>
       <c r="AI13"/>
       <c r="AJ13"/>
       <c r="AK13"/>
-    </row>
-    <row r="14" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AL13"/>
+      <c r="AM13"/>
+    </row>
+    <row r="14" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1052,13 +1108,13 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0.01</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="G14" s="11">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>1.0999999999999999E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="I14" s="11">
         <v>1</v>
@@ -1073,13 +1129,13 @@
         <v>6</v>
       </c>
       <c r="M14">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="N14" t="s">
-        <v>6</v>
-      </c>
-      <c r="O14" t="s">
-        <v>6</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>2E-3</v>
       </c>
       <c r="P14" t="s">
         <v>6</v>
@@ -1090,60 +1146,66 @@
       <c r="R14" t="s">
         <v>6</v>
       </c>
-      <c r="S14">
-        <v>0.02</v>
-      </c>
-      <c r="AB14"/>
+      <c r="S14" t="s">
+        <v>6</v>
+      </c>
+      <c r="T14" t="s">
+        <v>6</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
       <c r="AD14"/>
-      <c r="AE14"/>
+      <c r="AF14"/>
       <c r="AG14"/>
-      <c r="AH14"/>
       <c r="AI14"/>
       <c r="AJ14"/>
       <c r="AK14"/>
-    </row>
-    <row r="15" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AL14"/>
+      <c r="AM14"/>
+    </row>
+    <row r="15" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="G15" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="K15">
         <v>4</v>
       </c>
       <c r="L15">
-        <v>1.06</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="M15">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="N15" t="s">
-        <v>6</v>
-      </c>
-      <c r="O15" t="s">
-        <v>6</v>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0.109</v>
       </c>
       <c r="P15" t="s">
         <v>6</v>
@@ -1154,24 +1216,30 @@
       <c r="R15" t="s">
         <v>6</v>
       </c>
-      <c r="S15">
-        <v>0.01</v>
-      </c>
-      <c r="AB15"/>
+      <c r="S15" t="s">
+        <v>6</v>
+      </c>
+      <c r="T15" t="s">
+        <v>6</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
       <c r="AD15"/>
-      <c r="AE15"/>
+      <c r="AF15"/>
       <c r="AG15"/>
-      <c r="AH15"/>
       <c r="AI15"/>
       <c r="AJ15"/>
       <c r="AK15"/>
-    </row>
-    <row r="16" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AL15"/>
+      <c r="AM15"/>
+    </row>
+    <row r="16" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1192,22 +1260,22 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K16">
         <v>4</v>
       </c>
       <c r="L16">
-        <v>4.6100000000000003</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="M16">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="N16" t="s">
-        <v>6</v>
-      </c>
-      <c r="O16" t="s">
-        <v>6</v>
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0.11</v>
       </c>
       <c r="P16" t="s">
         <v>6</v>
@@ -1218,24 +1286,30 @@
       <c r="R16" t="s">
         <v>6</v>
       </c>
-      <c r="S16">
-        <v>0.01</v>
-      </c>
-      <c r="AB16"/>
+      <c r="S16" t="s">
+        <v>6</v>
+      </c>
+      <c r="T16" t="s">
+        <v>6</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
       <c r="AD16"/>
-      <c r="AE16"/>
+      <c r="AF16"/>
       <c r="AG16"/>
-      <c r="AH16"/>
       <c r="AI16"/>
       <c r="AJ16"/>
       <c r="AK16"/>
-    </row>
-    <row r="17" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AL16"/>
+      <c r="AM16"/>
+    </row>
+    <row r="17" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1244,19 +1318,19 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G17" s="11">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K17">
         <v>4</v>
@@ -1265,13 +1339,13 @@
         <v>6</v>
       </c>
       <c r="M17">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="N17" t="s">
-        <v>6</v>
-      </c>
-      <c r="O17" t="s">
-        <v>6</v>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="P17" t="s">
         <v>6</v>
@@ -1282,24 +1356,30 @@
       <c r="R17" t="s">
         <v>6</v>
       </c>
-      <c r="S17">
-        <v>0.02</v>
-      </c>
-      <c r="AB17"/>
+      <c r="S17" t="s">
+        <v>6</v>
+      </c>
+      <c r="T17" t="s">
+        <v>6</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
       <c r="AD17"/>
-      <c r="AE17"/>
+      <c r="AF17"/>
       <c r="AG17"/>
-      <c r="AH17"/>
       <c r="AI17"/>
       <c r="AJ17"/>
       <c r="AK17"/>
-    </row>
-    <row r="18" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AL17"/>
+      <c r="AM17"/>
+    </row>
+    <row r="18" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1320,22 +1400,22 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>4</v>
       </c>
-      <c r="L18" t="s">
-        <v>6</v>
+      <c r="L18">
+        <v>0.76</v>
       </c>
       <c r="M18">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N18" t="s">
-        <v>6</v>
-      </c>
-      <c r="O18" t="s">
-        <v>6</v>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="P18" t="s">
         <v>6</v>
@@ -1346,24 +1426,30 @@
       <c r="R18" t="s">
         <v>6</v>
       </c>
-      <c r="S18">
-        <v>0.01</v>
-      </c>
-      <c r="AB18"/>
+      <c r="S18" t="s">
+        <v>6</v>
+      </c>
+      <c r="T18" t="s">
+        <v>6</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
       <c r="AD18"/>
-      <c r="AE18"/>
+      <c r="AF18"/>
       <c r="AG18"/>
-      <c r="AH18"/>
       <c r="AI18"/>
       <c r="AJ18"/>
       <c r="AK18"/>
-    </row>
-    <row r="19" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AL18"/>
+      <c r="AM18"/>
+    </row>
+    <row r="19" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1395,11 +1481,11 @@
       <c r="M19">
         <v>1.6E-2</v>
       </c>
-      <c r="N19" t="s">
-        <v>6</v>
-      </c>
-      <c r="O19" t="s">
-        <v>6</v>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0.153</v>
       </c>
       <c r="P19" t="s">
         <v>6</v>
@@ -1410,24 +1496,30 @@
       <c r="R19" t="s">
         <v>6</v>
       </c>
-      <c r="S19">
-        <v>0.02</v>
-      </c>
-      <c r="AB19"/>
+      <c r="S19" t="s">
+        <v>6</v>
+      </c>
+      <c r="T19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
       <c r="AD19"/>
-      <c r="AE19"/>
+      <c r="AF19"/>
       <c r="AG19"/>
-      <c r="AH19"/>
       <c r="AI19"/>
       <c r="AJ19"/>
       <c r="AK19"/>
-    </row>
-    <row r="20" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AL19"/>
+      <c r="AM19"/>
+    </row>
+    <row r="20" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1448,7 +1540,7 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K20">
         <v>4</v>
@@ -1457,13 +1549,13 @@
         <v>6</v>
       </c>
       <c r="M20">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N20" t="s">
-        <v>6</v>
-      </c>
-      <c r="O20" t="s">
-        <v>6</v>
+        <v>2E-3</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>2E-3</v>
       </c>
       <c r="P20" t="s">
         <v>6</v>
@@ -1474,60 +1566,66 @@
       <c r="R20" t="s">
         <v>6</v>
       </c>
-      <c r="S20">
-        <v>0.01</v>
-      </c>
-      <c r="AB20"/>
+      <c r="S20" t="s">
+        <v>6</v>
+      </c>
+      <c r="T20" t="s">
+        <v>6</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
       <c r="AD20"/>
-      <c r="AE20"/>
+      <c r="AF20"/>
       <c r="AG20"/>
-      <c r="AH20"/>
       <c r="AI20"/>
       <c r="AJ20"/>
       <c r="AK20"/>
-    </row>
-    <row r="21" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AL20"/>
+      <c r="AM20"/>
+    </row>
+    <row r="21" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K21">
         <v>4</v>
       </c>
       <c r="L21">
-        <v>0.95</v>
+        <v>0.3</v>
       </c>
       <c r="M21">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="N21" t="s">
-        <v>6</v>
-      </c>
-      <c r="O21" t="s">
-        <v>6</v>
+        <v>2E-3</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>2E-3</v>
       </c>
       <c r="P21" t="s">
         <v>6</v>
@@ -1538,24 +1636,30 @@
       <c r="R21" t="s">
         <v>6</v>
       </c>
-      <c r="S21">
-        <v>0.01</v>
-      </c>
-      <c r="AB21"/>
+      <c r="S21" t="s">
+        <v>6</v>
+      </c>
+      <c r="T21" t="s">
+        <v>6</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
       <c r="AD21"/>
-      <c r="AE21"/>
+      <c r="AF21"/>
       <c r="AG21"/>
-      <c r="AH21"/>
       <c r="AI21"/>
       <c r="AJ21"/>
       <c r="AK21"/>
-    </row>
-    <row r="22" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AL21"/>
+      <c r="AM21"/>
+    </row>
+    <row r="22" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1570,29 +1674,29 @@
         <v>1</v>
       </c>
       <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" s="11">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <v>3.02</v>
+      </c>
+      <c r="M22">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="I22" s="11">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>0.25</v>
-      </c>
-      <c r="K22">
-        <v>4</v>
-      </c>
-      <c r="L22">
-        <v>1.75</v>
-      </c>
-      <c r="M22">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="N22" t="s">
-        <v>6</v>
-      </c>
-      <c r="O22" t="s">
-        <v>6</v>
-      </c>
       <c r="P22" t="s">
         <v>6</v>
       </c>
@@ -1602,42 +1706,48 @@
       <c r="R22" t="s">
         <v>6</v>
       </c>
-      <c r="S22">
-        <v>0.01</v>
-      </c>
-      <c r="AB22"/>
+      <c r="S22" t="s">
+        <v>6</v>
+      </c>
+      <c r="T22" t="s">
+        <v>6</v>
+      </c>
+      <c r="U22">
+        <v>0.02</v>
+      </c>
       <c r="AD22"/>
-      <c r="AE22"/>
+      <c r="AF22"/>
       <c r="AG22"/>
-      <c r="AH22"/>
       <c r="AI22"/>
       <c r="AJ22"/>
       <c r="AK22"/>
-    </row>
-    <row r="23" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AL22"/>
+      <c r="AM22"/>
+    </row>
+    <row r="23" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23">
         <v>0.25</v>
@@ -1645,17 +1755,17 @@
       <c r="K23">
         <v>4</v>
       </c>
-      <c r="L23" t="s">
-        <v>6</v>
+      <c r="L23">
+        <v>1.36</v>
       </c>
       <c r="M23">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="N23" t="s">
-        <v>6</v>
-      </c>
-      <c r="O23" t="s">
-        <v>6</v>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="P23" t="s">
         <v>6</v>
@@ -1666,24 +1776,30 @@
       <c r="R23" t="s">
         <v>6</v>
       </c>
-      <c r="S23">
-        <v>0.01</v>
-      </c>
-      <c r="AB23"/>
+      <c r="S23" t="s">
+        <v>6</v>
+      </c>
+      <c r="T23" t="s">
+        <v>6</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
       <c r="AD23"/>
-      <c r="AE23"/>
+      <c r="AF23"/>
       <c r="AG23"/>
-      <c r="AH23"/>
       <c r="AI23"/>
       <c r="AJ23"/>
       <c r="AK23"/>
-    </row>
-    <row r="24" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AL23"/>
+      <c r="AM23"/>
+    </row>
+    <row r="24" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1695,16 +1811,16 @@
         <v>0</v>
       </c>
       <c r="G24" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K24">
         <v>4</v>
@@ -1713,13 +1829,13 @@
         <v>6</v>
       </c>
       <c r="M24">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="N24" t="s">
-        <v>6</v>
-      </c>
-      <c r="O24" t="s">
-        <v>6</v>
+        <v>4.7E-2</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0.01</v>
       </c>
       <c r="P24" t="s">
         <v>6</v>
@@ -1730,24 +1846,30 @@
       <c r="R24" t="s">
         <v>6</v>
       </c>
-      <c r="S24">
-        <v>0.01</v>
-      </c>
-      <c r="AB24"/>
+      <c r="S24" t="s">
+        <v>6</v>
+      </c>
+      <c r="T24" t="s">
+        <v>6</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
       <c r="AD24"/>
-      <c r="AE24"/>
+      <c r="AF24"/>
       <c r="AG24"/>
-      <c r="AH24"/>
       <c r="AI24"/>
       <c r="AJ24"/>
       <c r="AK24"/>
-    </row>
-    <row r="25" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AL24"/>
+      <c r="AM24"/>
+    </row>
+    <row r="25" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1779,11 +1901,11 @@
       <c r="M25">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N25" t="s">
-        <v>6</v>
-      </c>
-      <c r="O25" t="s">
-        <v>6</v>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>2E-3</v>
       </c>
       <c r="P25" t="s">
         <v>6</v>
@@ -1794,45 +1916,51 @@
       <c r="R25" t="s">
         <v>6</v>
       </c>
-      <c r="S25">
-        <v>0.01</v>
-      </c>
-      <c r="AB25"/>
+      <c r="S25" t="s">
+        <v>6</v>
+      </c>
+      <c r="T25" t="s">
+        <v>6</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
       <c r="AD25"/>
-      <c r="AE25"/>
+      <c r="AF25"/>
       <c r="AG25"/>
-      <c r="AH25"/>
       <c r="AI25"/>
       <c r="AJ25"/>
       <c r="AK25"/>
-    </row>
-    <row r="26" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AL25"/>
+      <c r="AM25"/>
+    </row>
+    <row r="26" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="G26" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K26">
         <v>4</v>
@@ -1841,13 +1969,13 @@
         <v>6</v>
       </c>
       <c r="M26">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="N26" t="s">
-        <v>6</v>
-      </c>
-      <c r="O26" t="s">
-        <v>6</v>
+        <v>2E-3</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>2E-3</v>
       </c>
       <c r="P26" t="s">
         <v>6</v>
@@ -1858,24 +1986,30 @@
       <c r="R26" t="s">
         <v>6</v>
       </c>
-      <c r="S26">
-        <v>0.01</v>
-      </c>
-      <c r="AB26"/>
+      <c r="S26" t="s">
+        <v>6</v>
+      </c>
+      <c r="T26" t="s">
+        <v>6</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
       <c r="AD26"/>
-      <c r="AE26"/>
+      <c r="AF26"/>
       <c r="AG26"/>
-      <c r="AH26"/>
       <c r="AI26"/>
       <c r="AJ26"/>
       <c r="AK26"/>
-    </row>
-    <row r="27" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AL26"/>
+      <c r="AM26"/>
+    </row>
+    <row r="27" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1896,22 +2030,22 @@
         <v>1</v>
       </c>
       <c r="J27">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K27">
         <v>4</v>
       </c>
       <c r="L27">
-        <v>1.34</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="M27">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="N27" t="s">
-        <v>6</v>
-      </c>
-      <c r="O27" t="s">
-        <v>6</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>1.2E-2</v>
       </c>
       <c r="P27" t="s">
         <v>6</v>
@@ -1922,24 +2056,30 @@
       <c r="R27" t="s">
         <v>6</v>
       </c>
-      <c r="S27">
-        <v>0.01</v>
-      </c>
-      <c r="AB27"/>
+      <c r="S27" t="s">
+        <v>6</v>
+      </c>
+      <c r="T27" t="s">
+        <v>6</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
       <c r="AD27"/>
-      <c r="AE27"/>
+      <c r="AF27"/>
       <c r="AG27"/>
-      <c r="AH27"/>
       <c r="AI27"/>
       <c r="AJ27"/>
       <c r="AK27"/>
-    </row>
-    <row r="28" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AL27"/>
+      <c r="AM27"/>
+    </row>
+    <row r="28" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1951,16 +2091,16 @@
         <v>0</v>
       </c>
       <c r="G28" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="K28">
         <v>4</v>
@@ -1969,13 +2109,13 @@
         <v>6</v>
       </c>
       <c r="M28">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="N28" t="s">
-        <v>6</v>
-      </c>
-      <c r="O28" t="s">
-        <v>6</v>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>2E-3</v>
       </c>
       <c r="P28" t="s">
         <v>6</v>
@@ -1986,24 +2126,30 @@
       <c r="R28" t="s">
         <v>6</v>
       </c>
-      <c r="S28">
-        <v>0.02</v>
-      </c>
-      <c r="AB28"/>
+      <c r="S28" t="s">
+        <v>6</v>
+      </c>
+      <c r="T28" t="s">
+        <v>6</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
       <c r="AD28"/>
-      <c r="AE28"/>
+      <c r="AF28"/>
       <c r="AG28"/>
-      <c r="AH28"/>
       <c r="AI28"/>
       <c r="AJ28"/>
       <c r="AK28"/>
-    </row>
-    <row r="29" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AL28"/>
+      <c r="AM28"/>
+    </row>
+    <row r="29" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2035,11 +2181,11 @@
       <c r="M29">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="N29" t="s">
-        <v>6</v>
-      </c>
-      <c r="O29" t="s">
-        <v>6</v>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>2E-3</v>
       </c>
       <c r="P29" t="s">
         <v>6</v>
@@ -2050,24 +2196,30 @@
       <c r="R29" t="s">
         <v>6</v>
       </c>
-      <c r="S29">
-        <v>0.01</v>
-      </c>
-      <c r="AB29"/>
+      <c r="S29" t="s">
+        <v>6</v>
+      </c>
+      <c r="T29" t="s">
+        <v>6</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
       <c r="AD29"/>
-      <c r="AE29"/>
+      <c r="AF29"/>
       <c r="AG29"/>
-      <c r="AH29"/>
       <c r="AI29"/>
       <c r="AJ29"/>
       <c r="AK29"/>
-    </row>
-    <row r="30" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AL29"/>
+      <c r="AM29"/>
+    </row>
+    <row r="30" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2097,13 +2249,13 @@
         <v>6</v>
       </c>
       <c r="M30">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="N30" t="s">
-        <v>6</v>
-      </c>
-      <c r="O30" t="s">
-        <v>6</v>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="P30" t="s">
         <v>6</v>
@@ -2114,42 +2266,48 @@
       <c r="R30" t="s">
         <v>6</v>
       </c>
-      <c r="S30">
-        <v>0.01</v>
-      </c>
-      <c r="AB30"/>
+      <c r="S30" t="s">
+        <v>6</v>
+      </c>
+      <c r="T30" t="s">
+        <v>6</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
       <c r="AD30"/>
-      <c r="AE30"/>
+      <c r="AF30"/>
       <c r="AG30"/>
-      <c r="AH30"/>
       <c r="AI30"/>
       <c r="AJ30"/>
       <c r="AK30"/>
-    </row>
-    <row r="31" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AL30"/>
+      <c r="AM30"/>
+    </row>
+    <row r="31" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2161,13 +2319,13 @@
         <v>6</v>
       </c>
       <c r="M31">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="N31" t="s">
-        <v>6</v>
-      </c>
-      <c r="O31" t="s">
-        <v>6</v>
+        <v>0.03</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="P31" t="s">
         <v>6</v>
@@ -2178,24 +2336,30 @@
       <c r="R31" t="s">
         <v>6</v>
       </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="AB31"/>
+      <c r="S31" t="s">
+        <v>6</v>
+      </c>
+      <c r="T31" t="s">
+        <v>6</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
       <c r="AD31"/>
-      <c r="AE31"/>
+      <c r="AF31"/>
       <c r="AG31"/>
-      <c r="AH31"/>
       <c r="AI31"/>
       <c r="AJ31"/>
       <c r="AK31"/>
-    </row>
-    <row r="32" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AL31"/>
+      <c r="AM31"/>
+    </row>
+    <row r="32" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2216,7 +2380,7 @@
         <v>1</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="K32">
         <v>4</v>
@@ -2225,13 +2389,13 @@
         <v>6</v>
       </c>
       <c r="M32">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="N32" t="s">
-        <v>6</v>
-      </c>
-      <c r="O32" t="s">
-        <v>6</v>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>2E-3</v>
       </c>
       <c r="P32" t="s">
         <v>6</v>
@@ -2242,45 +2406,51 @@
       <c r="R32" t="s">
         <v>6</v>
       </c>
-      <c r="S32">
-        <v>0.02</v>
-      </c>
-      <c r="AB32"/>
+      <c r="S32" t="s">
+        <v>6</v>
+      </c>
+      <c r="T32" t="s">
+        <v>6</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
       <c r="AD32"/>
-      <c r="AE32"/>
+      <c r="AF32"/>
       <c r="AG32"/>
-      <c r="AH32"/>
       <c r="AI32"/>
       <c r="AJ32"/>
       <c r="AK32"/>
-    </row>
-    <row r="33" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AL32"/>
+      <c r="AM32"/>
+    </row>
+    <row r="33" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>4</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>0.25</v>
+        <v>2.25</v>
       </c>
       <c r="K33">
         <v>4</v>
@@ -2289,13 +2459,13 @@
         <v>1.39</v>
       </c>
       <c r="M33">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N33" t="s">
-        <v>6</v>
-      </c>
-      <c r="O33" t="s">
-        <v>6</v>
+        <v>0.01</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="P33" t="s">
         <v>6</v>
@@ -2306,24 +2476,30 @@
       <c r="R33" t="s">
         <v>6</v>
       </c>
-      <c r="S33">
-        <v>0.01</v>
-      </c>
-      <c r="AB33"/>
+      <c r="S33" t="s">
+        <v>6</v>
+      </c>
+      <c r="T33" t="s">
+        <v>6</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
       <c r="AD33"/>
-      <c r="AE33"/>
+      <c r="AF33"/>
       <c r="AG33"/>
-      <c r="AH33"/>
       <c r="AI33"/>
       <c r="AJ33"/>
       <c r="AK33"/>
-    </row>
-    <row r="34" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AL33"/>
+      <c r="AM33"/>
+    </row>
+    <row r="34" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2344,22 +2520,22 @@
         <v>1</v>
       </c>
       <c r="J34">
-        <v>0.25</v>
+        <v>4</v>
       </c>
       <c r="K34">
         <v>4</v>
       </c>
       <c r="L34">
-        <v>4.49</v>
+        <v>1.5</v>
       </c>
       <c r="M34">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="N34" t="s">
-        <v>6</v>
-      </c>
-      <c r="O34" t="s">
-        <v>6</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>2E-3</v>
       </c>
       <c r="P34" t="s">
         <v>6</v>
@@ -2370,24 +2546,30 @@
       <c r="R34" t="s">
         <v>6</v>
       </c>
-      <c r="S34">
-        <v>0.02</v>
-      </c>
-      <c r="AB34"/>
+      <c r="S34" t="s">
+        <v>6</v>
+      </c>
+      <c r="T34" t="s">
+        <v>6</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
       <c r="AD34"/>
-      <c r="AE34"/>
+      <c r="AF34"/>
       <c r="AG34"/>
-      <c r="AH34"/>
       <c r="AI34"/>
       <c r="AJ34"/>
       <c r="AK34"/>
-    </row>
-    <row r="35" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AL34"/>
+      <c r="AM34"/>
+    </row>
+    <row r="35" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -2399,16 +2581,16 @@
         <v>0</v>
       </c>
       <c r="G35" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K35">
         <v>4</v>
@@ -2417,13 +2599,13 @@
         <v>6</v>
       </c>
       <c r="M35">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="N35" t="s">
-        <v>6</v>
-      </c>
-      <c r="O35" t="s">
-        <v>6</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>2E-3</v>
       </c>
       <c r="P35" t="s">
         <v>6</v>
@@ -2434,24 +2616,30 @@
       <c r="R35" t="s">
         <v>6</v>
       </c>
-      <c r="S35">
+      <c r="S35" t="s">
+        <v>6</v>
+      </c>
+      <c r="T35" t="s">
+        <v>6</v>
+      </c>
+      <c r="U35">
         <v>0.01</v>
       </c>
-      <c r="AB35"/>
       <c r="AD35"/>
-      <c r="AE35"/>
+      <c r="AF35"/>
       <c r="AG35"/>
-      <c r="AH35"/>
       <c r="AI35"/>
       <c r="AJ35"/>
       <c r="AK35"/>
-    </row>
-    <row r="36" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AL35"/>
+      <c r="AM35"/>
+    </row>
+    <row r="36" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -2472,7 +2660,7 @@
         <v>1</v>
       </c>
       <c r="J36">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>4</v>
@@ -2481,13 +2669,13 @@
         <v>6</v>
       </c>
       <c r="M36">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N36" t="s">
-        <v>6</v>
-      </c>
-      <c r="O36" t="s">
-        <v>6</v>
+        <v>1E-3</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="P36" t="s">
         <v>6</v>
@@ -2498,24 +2686,30 @@
       <c r="R36" t="s">
         <v>6</v>
       </c>
-      <c r="S36">
-        <v>0.01</v>
-      </c>
-      <c r="AB36"/>
+      <c r="S36" t="s">
+        <v>6</v>
+      </c>
+      <c r="T36" t="s">
+        <v>6</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
       <c r="AD36"/>
-      <c r="AE36"/>
+      <c r="AF36"/>
       <c r="AG36"/>
-      <c r="AH36"/>
       <c r="AI36"/>
       <c r="AJ36"/>
       <c r="AK36"/>
-    </row>
-    <row r="37" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AL36"/>
+      <c r="AM36"/>
+    </row>
+    <row r="37" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2527,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2545,13 +2739,13 @@
         <v>6</v>
       </c>
       <c r="M37">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="N37" t="s">
-        <v>6</v>
-      </c>
-      <c r="O37" t="s">
-        <v>6</v>
+        <v>2E-3</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>2E-3</v>
       </c>
       <c r="P37" t="s">
         <v>6</v>
@@ -2562,24 +2756,30 @@
       <c r="R37" t="s">
         <v>6</v>
       </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="AB37"/>
+      <c r="S37" t="s">
+        <v>6</v>
+      </c>
+      <c r="T37" t="s">
+        <v>6</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
       <c r="AD37"/>
-      <c r="AE37"/>
+      <c r="AF37"/>
       <c r="AG37"/>
-      <c r="AH37"/>
       <c r="AI37"/>
       <c r="AJ37"/>
       <c r="AK37"/>
-    </row>
-    <row r="38" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AL37"/>
+      <c r="AM37"/>
+    </row>
+    <row r="38" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>4</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2594,28 +2794,28 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="I38" s="11">
         <v>1</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="K38">
         <v>4</v>
       </c>
-      <c r="L38">
-        <v>0.47</v>
+      <c r="L38" t="s">
+        <v>6</v>
       </c>
       <c r="M38">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="N38" t="s">
-        <v>6</v>
-      </c>
-      <c r="O38" t="s">
-        <v>6</v>
+        <v>2E-3</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>1.9E-2</v>
       </c>
       <c r="P38" t="s">
         <v>6</v>
@@ -2626,24 +2826,30 @@
       <c r="R38" t="s">
         <v>6</v>
       </c>
-      <c r="S38">
-        <v>0.01</v>
-      </c>
-      <c r="AB38"/>
+      <c r="S38" t="s">
+        <v>6</v>
+      </c>
+      <c r="T38" t="s">
+        <v>6</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
       <c r="AD38"/>
-      <c r="AE38"/>
+      <c r="AF38"/>
       <c r="AG38"/>
-      <c r="AH38"/>
       <c r="AI38"/>
       <c r="AJ38"/>
       <c r="AK38"/>
-    </row>
-    <row r="39" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AL38"/>
+      <c r="AM38"/>
+    </row>
+    <row r="39" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>4</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2652,34 +2858,34 @@
         <v>2</v>
       </c>
       <c r="F39">
-        <v>8.9999999999999993E-3</v>
+        <v>0</v>
       </c>
       <c r="G39" s="11">
         <v>2</v>
       </c>
       <c r="H39">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I39" s="11">
         <v>2</v>
       </c>
       <c r="J39">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <v>4</v>
       </c>
-      <c r="L39">
-        <v>4.5</v>
+      <c r="L39" t="s">
+        <v>6</v>
       </c>
       <c r="M39">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="N39" t="s">
-        <v>6</v>
-      </c>
-      <c r="O39" t="s">
-        <v>6</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>2E-3</v>
       </c>
       <c r="P39" t="s">
         <v>6</v>
@@ -2690,24 +2896,30 @@
       <c r="R39" t="s">
         <v>6</v>
       </c>
-      <c r="S39">
-        <v>0.02</v>
-      </c>
-      <c r="AB39"/>
+      <c r="S39" t="s">
+        <v>6</v>
+      </c>
+      <c r="T39" t="s">
+        <v>6</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
       <c r="AD39"/>
-      <c r="AE39"/>
+      <c r="AF39"/>
       <c r="AG39"/>
-      <c r="AH39"/>
       <c r="AI39"/>
       <c r="AJ39"/>
       <c r="AK39"/>
-    </row>
-    <row r="40" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AL39"/>
+      <c r="AM39"/>
+    </row>
+    <row r="40" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>4</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2719,31 +2931,31 @@
         <v>0</v>
       </c>
       <c r="G40" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="K40">
         <v>4</v>
       </c>
-      <c r="L40">
-        <v>2.63</v>
+      <c r="L40" t="s">
+        <v>6</v>
       </c>
       <c r="M40">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="N40" t="s">
-        <v>6</v>
-      </c>
-      <c r="O40" t="s">
-        <v>6</v>
+        <v>1E-3</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="P40" t="s">
         <v>6</v>
@@ -2754,60 +2966,66 @@
       <c r="R40" t="s">
         <v>6</v>
       </c>
-      <c r="S40">
-        <v>0.01</v>
-      </c>
-      <c r="AB40"/>
+      <c r="S40" t="s">
+        <v>6</v>
+      </c>
+      <c r="T40" t="s">
+        <v>6</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
       <c r="AD40"/>
-      <c r="AE40"/>
+      <c r="AF40"/>
       <c r="AG40"/>
-      <c r="AH40"/>
       <c r="AI40"/>
       <c r="AJ40"/>
       <c r="AK40"/>
-    </row>
-    <row r="41" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AL40"/>
+      <c r="AM40"/>
+    </row>
+    <row r="41" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>4</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41" s="11">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G41" s="11">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" s="11">
+        <v>1</v>
+      </c>
+      <c r="J41">
         <v>2</v>
       </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41" s="11">
-        <v>2</v>
-      </c>
-      <c r="H41">
+      <c r="K41">
+        <v>4</v>
+      </c>
+      <c r="L41">
+        <v>3.5</v>
+      </c>
+      <c r="M41">
         <v>2E-3</v>
       </c>
-      <c r="I41" s="11">
-        <v>2</v>
-      </c>
-      <c r="J41">
-        <v>1.5</v>
-      </c>
-      <c r="K41">
-        <v>4</v>
-      </c>
-      <c r="L41">
-        <v>1.75</v>
-      </c>
-      <c r="M41">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="N41" t="s">
-        <v>6</v>
-      </c>
-      <c r="O41" t="s">
-        <v>6</v>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="P41" t="s">
         <v>6</v>
@@ -2818,60 +3036,66 @@
       <c r="R41" t="s">
         <v>6</v>
       </c>
-      <c r="S41">
-        <v>0.04</v>
-      </c>
-      <c r="AB41"/>
+      <c r="S41" t="s">
+        <v>6</v>
+      </c>
+      <c r="T41" t="s">
+        <v>6</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
       <c r="AD41"/>
-      <c r="AE41"/>
+      <c r="AF41"/>
       <c r="AG41"/>
-      <c r="AH41"/>
       <c r="AI41"/>
       <c r="AJ41"/>
       <c r="AK41"/>
-    </row>
-    <row r="42" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AL41"/>
+      <c r="AM41"/>
+    </row>
+    <row r="42" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>4</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="K42">
         <v>4</v>
       </c>
       <c r="L42">
-        <v>1.54</v>
+        <v>2.52</v>
       </c>
       <c r="M42">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="N42" t="s">
-        <v>6</v>
-      </c>
-      <c r="O42" t="s">
-        <v>6</v>
+        <v>3.1E-2</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>1.4E-2</v>
       </c>
       <c r="P42" t="s">
         <v>6</v>
@@ -2882,60 +3106,66 @@
       <c r="R42" t="s">
         <v>6</v>
       </c>
-      <c r="S42">
-        <v>0.01</v>
-      </c>
-      <c r="AB42"/>
+      <c r="S42" t="s">
+        <v>6</v>
+      </c>
+      <c r="T42" t="s">
+        <v>6</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
       <c r="AD42"/>
-      <c r="AE42"/>
+      <c r="AF42"/>
       <c r="AG42"/>
-      <c r="AH42"/>
       <c r="AI42"/>
       <c r="AJ42"/>
       <c r="AK42"/>
-    </row>
-    <row r="43" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AL42"/>
+      <c r="AM42"/>
+    </row>
+    <row r="43" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>4</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="G43" s="11">
         <v>2</v>
       </c>
       <c r="H43">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="I43" s="11">
         <v>2</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="K43">
         <v>4</v>
       </c>
       <c r="L43">
-        <v>1.17</v>
+        <v>1.47</v>
       </c>
       <c r="M43">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="N43" t="s">
-        <v>6</v>
-      </c>
-      <c r="O43" t="s">
-        <v>6</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N43">
+        <v>0.75</v>
+      </c>
+      <c r="O43">
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="P43" t="s">
         <v>6</v>
@@ -2946,24 +3176,30 @@
       <c r="R43" t="s">
         <v>6</v>
       </c>
-      <c r="S43">
-        <v>0.01</v>
-      </c>
-      <c r="AB43"/>
+      <c r="S43" t="s">
+        <v>6</v>
+      </c>
+      <c r="T43" t="s">
+        <v>6</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
       <c r="AD43"/>
-      <c r="AE43"/>
+      <c r="AF43"/>
       <c r="AG43"/>
-      <c r="AH43"/>
       <c r="AI43"/>
       <c r="AJ43"/>
       <c r="AK43"/>
-    </row>
-    <row r="44" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AL43"/>
+      <c r="AM43"/>
+    </row>
+    <row r="44" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>4</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2975,31 +3211,31 @@
         <v>0</v>
       </c>
       <c r="G44" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" s="11">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>3.75</v>
+      </c>
+      <c r="K44">
+        <v>4</v>
+      </c>
+      <c r="L44">
+        <v>1.21</v>
+      </c>
+      <c r="M44">
         <v>2E-3</v>
       </c>
-      <c r="I44" s="11">
-        <v>2</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>4</v>
-      </c>
-      <c r="L44" t="s">
-        <v>6</v>
-      </c>
-      <c r="M44">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N44" t="s">
-        <v>6</v>
-      </c>
-      <c r="O44" t="s">
-        <v>6</v>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>2E-3</v>
       </c>
       <c r="P44" t="s">
         <v>6</v>
@@ -3010,24 +3246,30 @@
       <c r="R44" t="s">
         <v>6</v>
       </c>
-      <c r="S44">
-        <v>0.01</v>
-      </c>
-      <c r="AB44"/>
+      <c r="S44" t="s">
+        <v>6</v>
+      </c>
+      <c r="T44" t="s">
+        <v>6</v>
+      </c>
+      <c r="U44">
+        <v>0.17</v>
+      </c>
       <c r="AD44"/>
-      <c r="AE44"/>
+      <c r="AF44"/>
       <c r="AG44"/>
-      <c r="AH44"/>
       <c r="AI44"/>
       <c r="AJ44"/>
       <c r="AK44"/>
-    </row>
-    <row r="45" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AL44"/>
+      <c r="AM44"/>
+    </row>
+    <row r="45" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -3036,34 +3278,34 @@
         <v>1</v>
       </c>
       <c r="F45">
-        <v>1.9E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="G45" s="11">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>6.7000000000000004E-2</v>
+        <v>0</v>
       </c>
       <c r="I45" s="11">
         <v>1</v>
       </c>
       <c r="J45">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="K45">
         <v>4</v>
       </c>
       <c r="L45">
-        <v>0.97</v>
+        <v>1.91</v>
       </c>
       <c r="M45">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="N45" t="s">
-        <v>6</v>
-      </c>
-      <c r="O45" t="s">
-        <v>6</v>
+        <v>0.01</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="P45" t="s">
         <v>6</v>
@@ -3074,24 +3316,30 @@
       <c r="R45" t="s">
         <v>6</v>
       </c>
-      <c r="S45">
-        <v>0.09</v>
-      </c>
-      <c r="AB45"/>
+      <c r="S45" t="s">
+        <v>6</v>
+      </c>
+      <c r="T45" t="s">
+        <v>6</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
       <c r="AD45"/>
-      <c r="AE45"/>
+      <c r="AF45"/>
       <c r="AG45"/>
-      <c r="AH45"/>
       <c r="AI45"/>
       <c r="AJ45"/>
       <c r="AK45"/>
-    </row>
-    <row r="46" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AL45"/>
+      <c r="AM45"/>
+    </row>
+    <row r="46" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -3106,28 +3354,28 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="I46" s="11">
         <v>1</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="K46">
         <v>4</v>
       </c>
       <c r="L46">
-        <v>2.5299999999999998</v>
+        <v>2</v>
       </c>
       <c r="M46">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="N46" t="s">
-        <v>6</v>
-      </c>
-      <c r="O46" t="s">
-        <v>6</v>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N46">
+        <v>0.5</v>
+      </c>
+      <c r="O46">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="P46" t="s">
         <v>6</v>
@@ -3138,172 +3386,190 @@
       <c r="R46" t="s">
         <v>6</v>
       </c>
-      <c r="S46">
-        <v>0.01</v>
-      </c>
-      <c r="AB46"/>
+      <c r="S46" t="s">
+        <v>6</v>
+      </c>
+      <c r="T46" t="s">
+        <v>6</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
       <c r="AD46"/>
-      <c r="AE46"/>
+      <c r="AF46"/>
       <c r="AG46"/>
-      <c r="AH46"/>
       <c r="AI46"/>
       <c r="AJ46"/>
       <c r="AK46"/>
-    </row>
-    <row r="47" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AL46"/>
+      <c r="AM46"/>
+    </row>
+    <row r="47" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>4</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47" s="11">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G47" s="11">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I47" s="11">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>8</v>
+      </c>
+      <c r="K47">
+        <v>4</v>
+      </c>
+      <c r="L47" t="s">
+        <v>6</v>
+      </c>
+      <c r="M47">
+        <v>2E-3</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>4.7E-2</v>
+      </c>
+      <c r="P47" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>6</v>
+      </c>
+      <c r="R47" t="s">
+        <v>6</v>
+      </c>
+      <c r="S47" t="s">
+        <v>6</v>
+      </c>
+      <c r="T47" t="s">
+        <v>6</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" s="11">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>2E-3</v>
+      </c>
+      <c r="G48" s="11">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48" s="11">
+        <v>1</v>
+      </c>
+      <c r="J48">
         <v>2</v>
       </c>
-      <c r="F47">
+      <c r="K48">
+        <v>4</v>
+      </c>
+      <c r="L48" t="s">
+        <v>6</v>
+      </c>
+      <c r="M48">
+        <v>1E-3</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="P48" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>6</v>
+      </c>
+      <c r="R48" t="s">
+        <v>6</v>
+      </c>
+      <c r="S48" t="s">
+        <v>6</v>
+      </c>
+      <c r="T48" t="s">
+        <v>6</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" s="11">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G49" s="11">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49" s="11">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0.25</v>
+      </c>
+      <c r="K49">
+        <v>4</v>
+      </c>
+      <c r="L49">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="M49">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G47" s="11">
-        <v>2</v>
-      </c>
-      <c r="H47">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="I47" s="11">
-        <v>2</v>
-      </c>
-      <c r="J47">
-        <v>0.25</v>
-      </c>
-      <c r="K47">
-        <v>4</v>
-      </c>
-      <c r="L47">
-        <v>1.22</v>
-      </c>
-      <c r="M47">
-        <v>0.01</v>
-      </c>
-      <c r="N47" t="s">
-        <v>6</v>
-      </c>
-      <c r="O47" t="s">
-        <v>6</v>
-      </c>
-      <c r="P47" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>6</v>
-      </c>
-      <c r="R47" t="s">
-        <v>6</v>
-      </c>
-      <c r="S47">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="48" spans="2:37" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48" s="11">
-        <v>1</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48" s="11">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>1E-3</v>
-      </c>
-      <c r="I48" s="11">
-        <v>1</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>4</v>
-      </c>
-      <c r="L48">
-        <v>1.53</v>
-      </c>
-      <c r="M48">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="N48" t="s">
-        <v>6</v>
-      </c>
-      <c r="O48" t="s">
-        <v>6</v>
-      </c>
-      <c r="P48" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>6</v>
-      </c>
-      <c r="R48" t="s">
-        <v>6</v>
-      </c>
-      <c r="S48">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="49" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49" s="11">
-        <v>2</v>
-      </c>
-      <c r="F49">
-        <v>0.47299999999999998</v>
-      </c>
-      <c r="G49" s="11">
-        <v>19</v>
-      </c>
-      <c r="H49">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="I49" s="11">
-        <v>19</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>4</v>
-      </c>
-      <c r="L49">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="M49">
-        <v>0.53700000000000003</v>
-      </c>
-      <c r="N49" t="s">
-        <v>6</v>
-      </c>
-      <c r="O49" t="s">
-        <v>6</v>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>2E-3</v>
       </c>
       <c r="P49" t="s">
         <v>6</v>
@@ -3314,16 +3580,22 @@
       <c r="R49" t="s">
         <v>6</v>
       </c>
-      <c r="S49">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="50" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S49" t="s">
+        <v>6</v>
+      </c>
+      <c r="T49" t="s">
+        <v>6</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>4</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -3332,34 +3604,34 @@
         <v>1</v>
       </c>
       <c r="F50">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="G50" s="11">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="I50" s="11">
         <v>1</v>
       </c>
       <c r="J50">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K50">
         <v>4</v>
       </c>
       <c r="L50">
-        <v>1.54</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="M50">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="N50" t="s">
-        <v>6</v>
-      </c>
-      <c r="O50" t="s">
-        <v>6</v>
+        <v>2E-3</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="P50" t="s">
         <v>6</v>
@@ -3370,16 +3642,22 @@
       <c r="R50" t="s">
         <v>6</v>
       </c>
-      <c r="S50">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="51" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S50" t="s">
+        <v>6</v>
+      </c>
+      <c r="T50" t="s">
+        <v>6</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>4</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -3388,34 +3666,34 @@
         <v>1</v>
       </c>
       <c r="F51">
-        <v>7.0000000000000001E-3</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="G51" s="11">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="H51">
-        <v>8.0000000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="I51" s="11">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="J51">
-        <v>8.75</v>
+        <v>0</v>
       </c>
       <c r="K51">
         <v>4</v>
       </c>
-      <c r="L51" t="s">
-        <v>6</v>
+      <c r="L51">
+        <v>4.33</v>
       </c>
       <c r="M51">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="N51" t="s">
-        <v>6</v>
-      </c>
-      <c r="O51" t="s">
-        <v>6</v>
+      <c r="N51">
+        <v>0.67</v>
+      </c>
+      <c r="O51">
+        <v>0.08</v>
       </c>
       <c r="P51" t="s">
         <v>6</v>
@@ -3426,16 +3704,22 @@
       <c r="R51" t="s">
         <v>6</v>
       </c>
-      <c r="S51">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S51" t="s">
+        <v>6</v>
+      </c>
+      <c r="T51" t="s">
+        <v>6</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>4</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -3444,16 +3728,16 @@
         <v>1</v>
       </c>
       <c r="F52">
-        <v>2.5000000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G52" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="I52" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52">
         <v>0.25</v>
@@ -3462,16 +3746,16 @@
         <v>4</v>
       </c>
       <c r="L52">
-        <v>1.07</v>
+        <v>1.79</v>
       </c>
       <c r="M52">
-        <v>3.1E-2</v>
-      </c>
-      <c r="N52" t="s">
-        <v>6</v>
-      </c>
-      <c r="O52" t="s">
-        <v>6</v>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="N52">
+        <v>0.67</v>
+      </c>
+      <c r="O52">
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="P52" t="s">
         <v>6</v>
@@ -3482,745 +3766,828 @@
       <c r="R52" t="s">
         <v>6</v>
       </c>
-      <c r="S52">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="53" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S52" t="s">
+        <v>6</v>
+      </c>
+      <c r="T52" t="s">
+        <v>6</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>4</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53" s="11">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1.738</v>
+      </c>
+      <c r="G53" s="11">
+        <v>22</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53" s="11">
+        <v>22</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>4</v>
+      </c>
+      <c r="L53">
+        <v>1.71</v>
+      </c>
+      <c r="M53">
+        <v>2.157</v>
+      </c>
+      <c r="N53">
+        <v>0.5</v>
+      </c>
+      <c r="O53">
+        <v>1.415</v>
+      </c>
+      <c r="P53" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>6</v>
+      </c>
+      <c r="R53" t="s">
+        <v>6</v>
+      </c>
+      <c r="S53" t="s">
+        <v>6</v>
+      </c>
+      <c r="T53" t="s">
+        <v>6</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" s="11">
         <v>2</v>
       </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53" s="11">
-        <v>2</v>
-      </c>
-      <c r="H53">
-        <v>1.9E-2</v>
-      </c>
-      <c r="I53" s="11">
-        <v>2</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>4</v>
-      </c>
-      <c r="L53">
-        <v>0.16</v>
-      </c>
-      <c r="M53">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="N53" t="s">
-        <v>6</v>
-      </c>
-      <c r="O53" t="s">
-        <v>6</v>
-      </c>
-      <c r="P53" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>6</v>
-      </c>
-      <c r="R53" t="s">
-        <v>6</v>
-      </c>
-      <c r="S53">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="54" spans="2:19" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="G54" s="11">
+        <v>3</v>
+      </c>
+      <c r="H54">
+        <v>1E-3</v>
+      </c>
+      <c r="I54" s="11">
+        <v>3</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>4</v>
+      </c>
+      <c r="L54">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="M54">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="P54" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>6</v>
+      </c>
+      <c r="R54" t="s">
+        <v>6</v>
+      </c>
+      <c r="S54" t="s">
+        <v>6</v>
+      </c>
+      <c r="T54" t="s">
+        <v>6</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>1E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="G55" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="I55" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J55">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K55">
-        <v>384</v>
+        <v>4</v>
       </c>
       <c r="L55">
-        <v>1.39</v>
+        <v>2.37</v>
       </c>
       <c r="M55">
-        <v>7.5999999999999998E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="N55">
-        <v>4.0000000000000001E-3</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="P55">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="Q55">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="R55">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="S55">
-        <v>1.27</v>
-      </c>
-    </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="P55" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>6</v>
+      </c>
+      <c r="R55" t="s">
+        <v>6</v>
+      </c>
+      <c r="S55" t="s">
+        <v>6</v>
+      </c>
+      <c r="T55" t="s">
+        <v>6</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>0.01</v>
+        <v>2E-3</v>
       </c>
       <c r="G56" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <v>1.4E-2</v>
+        <v>0</v>
       </c>
       <c r="I56" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J56">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>384</v>
+        <v>4</v>
       </c>
       <c r="L56">
-        <v>0.83</v>
+        <v>2.37</v>
       </c>
       <c r="M56">
-        <v>0.60799999999999998</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="N56">
-        <v>3.0000000000000001E-3</v>
+        <v>1</v>
       </c>
       <c r="O56">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="P56">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="Q56">
+      <c r="P56" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>6</v>
+      </c>
+      <c r="R56" t="s">
+        <v>6</v>
+      </c>
+      <c r="S56" t="s">
+        <v>6</v>
+      </c>
+      <c r="T56" t="s">
+        <v>6</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" s="11">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1E-3</v>
+      </c>
+      <c r="G57" s="11">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57" s="11">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>0.25</v>
+      </c>
+      <c r="K57">
+        <v>4</v>
+      </c>
+      <c r="L57">
+        <v>1.29</v>
+      </c>
+      <c r="M57">
+        <v>1E-3</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="P57" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>6</v>
+      </c>
+      <c r="R57" t="s">
+        <v>6</v>
+      </c>
+      <c r="S57" t="s">
+        <v>6</v>
+      </c>
+      <c r="T57" t="s">
+        <v>6</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" s="11">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G58" s="11">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58" s="11">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0.25</v>
+      </c>
+      <c r="K58">
+        <v>4</v>
+      </c>
+      <c r="L58" t="s">
+        <v>6</v>
+      </c>
+      <c r="M58">
+        <v>1E-3</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="P58" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>6</v>
+      </c>
+      <c r="R58" t="s">
+        <v>6</v>
+      </c>
+      <c r="S58" t="s">
+        <v>6</v>
+      </c>
+      <c r="T58" t="s">
+        <v>6</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" s="11">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>0.01</v>
+      </c>
+      <c r="G59" s="11">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59" s="11">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>0.75</v>
+      </c>
+      <c r="K59">
+        <v>4</v>
+      </c>
+      <c r="L59" t="s">
+        <v>6</v>
+      </c>
+      <c r="M59">
+        <v>1.9E-2</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>2E-3</v>
+      </c>
+      <c r="P59" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>6</v>
+      </c>
+      <c r="R59" t="s">
+        <v>6</v>
+      </c>
+      <c r="S59" t="s">
+        <v>6</v>
+      </c>
+      <c r="T59" t="s">
+        <v>6</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" s="11">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60" s="11">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60" s="11">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0.25</v>
+      </c>
+      <c r="K60">
+        <v>4</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="R56">
+      <c r="N60">
+        <v>0.75</v>
+      </c>
+      <c r="O60">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="S56">
-        <v>2.04</v>
-      </c>
-    </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57" s="11">
-        <v>4</v>
-      </c>
-      <c r="F57">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="G57" s="11">
-        <v>4</v>
-      </c>
-      <c r="H57">
-        <v>2.4E-2</v>
-      </c>
-      <c r="I57" s="11">
-        <v>4</v>
-      </c>
-      <c r="J57">
-        <v>3.28</v>
-      </c>
-      <c r="K57">
-        <v>384</v>
-      </c>
-      <c r="L57">
-        <v>0.81</v>
-      </c>
-      <c r="M57">
-        <v>0.75800000000000001</v>
-      </c>
-      <c r="N57">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="O57">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="P57">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="Q57">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="R57">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="S57">
-        <v>2.02</v>
-      </c>
-    </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58" s="11">
-        <v>7</v>
-      </c>
-      <c r="F58">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="G58" s="11">
-        <v>7</v>
-      </c>
-      <c r="H58">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="I58" s="11">
-        <v>7</v>
-      </c>
-      <c r="J58">
-        <v>0.68</v>
-      </c>
-      <c r="K58">
-        <v>384</v>
-      </c>
-      <c r="L58" t="s">
-        <v>6</v>
-      </c>
-      <c r="M58">
-        <v>0.318</v>
-      </c>
-      <c r="N58" t="s">
-        <v>6</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>6</v>
-      </c>
-      <c r="R58" t="s">
-        <v>6</v>
-      </c>
-      <c r="S58">
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59" s="11">
-        <v>7</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59" s="11">
-        <v>7</v>
-      </c>
-      <c r="H59">
-        <v>1E-3</v>
-      </c>
-      <c r="I59" s="11">
-        <v>7</v>
-      </c>
-      <c r="J59">
-        <v>0.3</v>
-      </c>
-      <c r="K59">
-        <v>384</v>
-      </c>
-      <c r="L59">
-        <v>0.95</v>
-      </c>
-      <c r="M59">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="N59">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="O59">
-        <v>1.4E-2</v>
-      </c>
-      <c r="P59">
-        <v>1.9E-3</v>
-      </c>
-      <c r="Q59">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="R59">
-        <v>0.04</v>
-      </c>
-      <c r="S59">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60" s="11">
-        <v>7</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60" s="11">
-        <v>7</v>
-      </c>
-      <c r="H60">
-        <v>1E-3</v>
-      </c>
-      <c r="I60" s="11">
-        <v>7</v>
-      </c>
-      <c r="J60">
-        <v>0.36</v>
-      </c>
-      <c r="K60">
-        <v>384</v>
-      </c>
-      <c r="L60">
-        <v>1.19</v>
-      </c>
-      <c r="M60">
-        <v>0.219</v>
-      </c>
-      <c r="N60">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="O60">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="P60">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="Q60">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="R60">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="S60">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61" s="11">
-        <v>7</v>
-      </c>
-      <c r="F61">
-        <v>1E-3</v>
-      </c>
-      <c r="G61" s="11">
-        <v>7</v>
-      </c>
-      <c r="H61">
+      <c r="P60" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>6</v>
+      </c>
+      <c r="R60" t="s">
+        <v>6</v>
+      </c>
+      <c r="S60" t="s">
+        <v>6</v>
+      </c>
+      <c r="T60" t="s">
+        <v>6</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" s="11">
+        <v>1</v>
+      </c>
+      <c r="F62">
         <v>2E-3</v>
       </c>
-      <c r="I61" s="11">
-        <v>7</v>
-      </c>
-      <c r="J61">
-        <v>1.63</v>
-      </c>
-      <c r="K61">
-        <v>384</v>
-      </c>
-      <c r="L61">
-        <v>0.91</v>
-      </c>
-      <c r="M61">
-        <v>0.48</v>
-      </c>
-      <c r="N61">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="O61">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="P61">
-        <v>7.6E-3</v>
-      </c>
-      <c r="Q61">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="R61">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="S61">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62" s="11">
-        <v>7</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
       <c r="G62" s="11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="I62" s="11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J62">
-        <v>0.84</v>
+        <v>0.05</v>
       </c>
       <c r="K62">
         <v>384</v>
       </c>
       <c r="L62">
-        <v>0.86</v>
+        <v>1.46</v>
       </c>
       <c r="M62">
-        <v>0.30599999999999999</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="N62">
-        <v>4.3999999999999997E-2</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="O62">
-        <v>5.5E-2</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="P62">
-        <v>7.6E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="Q62">
-        <v>4.9000000000000002E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="R62">
-        <v>4.5999999999999999E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="S62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="T62">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="U62">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="63" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63" s="11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G63" s="11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H63">
-        <v>1E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I63" s="11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J63">
-        <v>0.71</v>
+        <v>3.5</v>
       </c>
       <c r="K63">
         <v>384</v>
       </c>
       <c r="L63">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="M63">
-        <v>0.27400000000000002</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="N63">
-        <v>4.2999999999999997E-2</v>
+        <v>0.64</v>
       </c>
       <c r="O63">
-        <v>5.8000000000000003E-2</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="P63">
-        <v>7.6E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="Q63">
-        <v>4.9000000000000002E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="R63">
-        <v>4.8000000000000001E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="S63">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.25">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="T63">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="U63">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="64" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64" s="11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G64" s="11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I64" s="11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J64">
-        <v>0.16</v>
+        <v>2.97</v>
       </c>
       <c r="K64">
         <v>384</v>
       </c>
-      <c r="L64" t="s">
-        <v>6</v>
+      <c r="L64">
+        <v>0.82</v>
       </c>
       <c r="M64">
-        <v>0.152</v>
-      </c>
-      <c r="N64" t="s">
-        <v>6</v>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="N64">
+        <v>0.65</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="P64">
-        <v>0</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>6</v>
-      </c>
-      <c r="R64" t="s">
-        <v>6</v>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Q64">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R64">
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="S64">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.25">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="T64">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="U64">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="G65" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
       <c r="I65" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J65">
-        <v>0.23</v>
+        <v>0.69</v>
       </c>
       <c r="K65">
         <v>384</v>
       </c>
-      <c r="L65">
-        <v>1.25</v>
+      <c r="L65" t="s">
+        <v>6</v>
       </c>
       <c r="M65">
-        <v>0.20100000000000001</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="N65">
-        <v>3.6999999999999998E-2</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>1.4E-2</v>
-      </c>
-      <c r="P65">
-        <v>1.9E-3</v>
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="P65" t="s">
+        <v>6</v>
       </c>
       <c r="Q65">
-        <v>2.1000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="R65">
-        <v>0.04</v>
-      </c>
-      <c r="S65">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="S65" t="s">
+        <v>6</v>
+      </c>
+      <c r="T65" t="s">
+        <v>6</v>
+      </c>
+      <c r="U65">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H66">
         <v>0</v>
       </c>
       <c r="I66" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J66">
-        <v>0.28000000000000003</v>
+        <v>0.38</v>
       </c>
       <c r="K66">
         <v>384</v>
       </c>
       <c r="L66">
-        <v>0.93</v>
+        <v>1.17</v>
       </c>
       <c r="M66">
-        <v>0.19</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="N66">
-        <v>3.4000000000000002E-2</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>3.4000000000000002E-2</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="P66">
-        <v>5.7999999999999996E-3</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="Q66">
-        <v>3.4000000000000002E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="R66">
-        <v>4.1000000000000002E-2</v>
+        <v>1.9E-3</v>
       </c>
       <c r="S66">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.25">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="T66">
+        <v>0.04</v>
+      </c>
+      <c r="U66">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -4229,54 +4596,60 @@
         <v>7</v>
       </c>
       <c r="F67">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="G67" s="11">
         <v>7</v>
       </c>
       <c r="H67">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="I67" s="11">
         <v>7</v>
       </c>
       <c r="J67">
-        <v>1.18</v>
+        <v>0.6</v>
       </c>
       <c r="K67">
         <v>384</v>
       </c>
       <c r="L67">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="M67">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>0.432</v>
+      </c>
+      <c r="P67">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="Q67">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="R67">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="S67">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="T67">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="O67">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="P67">
-        <v>7.6E-3</v>
-      </c>
-      <c r="Q67">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="R67">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="S67">
-        <v>1.1399999999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U67">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -4285,184 +4658,202 @@
         <v>7</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="G68" s="11">
         <v>7</v>
       </c>
       <c r="H68">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="I68" s="11">
         <v>7</v>
       </c>
       <c r="J68">
-        <v>0.99</v>
+        <v>1.65</v>
       </c>
       <c r="K68">
         <v>384</v>
       </c>
       <c r="L68">
-        <v>0.91</v>
+        <v>0.79</v>
       </c>
       <c r="M68">
-        <v>0.35399999999999998</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="N68">
-        <v>4.3999999999999997E-2</v>
+        <v>0.84</v>
       </c>
       <c r="O68">
-        <v>5.5E-2</v>
+        <v>0.33</v>
       </c>
       <c r="P68">
-        <v>7.6E-3</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="Q68">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="R68">
-        <v>4.5999999999999999E-2</v>
+        <v>7.6E-3</v>
       </c>
       <c r="S68">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.25">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="T68">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="U68">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H69">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="I69" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J69">
-        <v>0.76</v>
+        <v>0.83</v>
       </c>
       <c r="K69">
         <v>384</v>
       </c>
       <c r="L69">
-        <v>0.99</v>
+        <v>0.83</v>
       </c>
       <c r="M69">
-        <v>0.27800000000000002</v>
+        <v>0.16</v>
       </c>
       <c r="N69">
-        <v>4.2999999999999997E-2</v>
+        <v>0.89</v>
       </c>
       <c r="O69">
-        <v>5.8000000000000003E-2</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="P69">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="Q69">
+        <v>5.5E-2</v>
+      </c>
+      <c r="R69">
         <v>7.6E-3</v>
       </c>
-      <c r="Q69">
+      <c r="S69">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="R69">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="S69">
+      <c r="T69">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="U69">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70" s="11">
+        <v>9</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70" s="11">
+        <v>9</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70" s="11">
+        <v>9</v>
+      </c>
+      <c r="J70">
         <v>0.93</v>
-      </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70" s="11">
-        <v>7</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70" s="11">
-        <v>7</v>
-      </c>
-      <c r="H70">
-        <v>1E-3</v>
-      </c>
-      <c r="I70" s="11">
-        <v>7</v>
-      </c>
-      <c r="J70">
-        <v>0.32</v>
       </c>
       <c r="K70">
         <v>384</v>
       </c>
-      <c r="L70" t="s">
-        <v>6</v>
+      <c r="L70">
+        <v>0.91</v>
       </c>
       <c r="M70">
-        <v>0.21</v>
-      </c>
-      <c r="N70" t="s">
-        <v>6</v>
+        <v>0.161</v>
+      </c>
+      <c r="N70">
+        <v>0.91</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="P70">
-        <v>0</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>6</v>
-      </c>
-      <c r="R70" t="s">
-        <v>6</v>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="Q70">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="R70">
+        <v>7.6E-3</v>
       </c>
       <c r="S70">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.25">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="T70">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="U70">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71" s="11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71" s="11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71" s="11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J71">
         <v>0.17</v>
@@ -4470,450 +4861,498 @@
       <c r="K71">
         <v>384</v>
       </c>
-      <c r="L71">
-        <v>0.5</v>
+      <c r="L71" t="s">
+        <v>6</v>
       </c>
       <c r="M71">
-        <v>0.16700000000000001</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="N71">
-        <v>4.2999999999999997E-2</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="P71">
-        <v>1E-3</v>
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="P71" t="s">
+        <v>6</v>
       </c>
       <c r="Q71">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R71">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="S71">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="S71" t="s">
+        <v>6</v>
+      </c>
+      <c r="T71" t="s">
+        <v>6</v>
+      </c>
+      <c r="U71">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72" s="11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72" s="11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H72">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="I72" s="11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J72">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="K72">
         <v>384</v>
       </c>
       <c r="L72">
-        <v>0.99</v>
+        <v>1.36</v>
       </c>
       <c r="M72">
-        <v>0.19500000000000001</v>
+        <v>0.158</v>
       </c>
       <c r="N72">
-        <v>4.2000000000000003E-2</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>2.7E-2</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="P72">
-        <v>4.0000000000000001E-3</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="Q72">
-        <v>3.3000000000000002E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="R72">
-        <v>4.8000000000000001E-2</v>
+        <v>1.9E-3</v>
       </c>
       <c r="S72">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.25">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="T72">
+        <v>0.04</v>
+      </c>
+      <c r="U72">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73" s="11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73" s="11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H73">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="I73" s="11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J73">
-        <v>2.64</v>
+        <v>0.3</v>
       </c>
       <c r="K73">
         <v>384</v>
       </c>
       <c r="L73">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="M73">
-        <v>0.76700000000000002</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="P73">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="O73">
+      <c r="Q73">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="R73">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="S73">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="T73">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="P73">
-        <v>7.7999999999999996E-3</v>
-      </c>
-      <c r="Q73">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="R73">
-        <v>3.1E-2</v>
-      </c>
-      <c r="S73">
-        <v>1.77</v>
-      </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U73">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74" s="11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="G74" s="11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H74">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="I74" s="11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J74">
-        <v>1.45</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="K74">
         <v>384</v>
       </c>
       <c r="L74">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="M74">
-        <v>0.437</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="N74">
-        <v>3.4000000000000002E-2</v>
+        <v>0.82</v>
       </c>
       <c r="O74">
+        <v>0.436</v>
+      </c>
+      <c r="P74">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="P74">
-        <v>7.7999999999999996E-3</v>
-      </c>
       <c r="Q74">
-        <v>3.6999999999999998E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="R74">
-        <v>3.1E-2</v>
+        <v>7.6E-3</v>
       </c>
       <c r="S74">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.25">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="T74">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="U74">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75" s="11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F75">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="G75" s="11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H75">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="I75" s="11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J75">
-        <v>1.64</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="K75">
         <v>384</v>
       </c>
       <c r="L75">
+        <v>0.83</v>
+      </c>
+      <c r="M75">
+        <v>0.2</v>
+      </c>
+      <c r="N75">
         <v>0.89</v>
       </c>
-      <c r="M75">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="N75">
-        <v>3.4000000000000002E-2</v>
-      </c>
       <c r="O75">
-        <v>4.1000000000000002E-2</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="P75">
-        <v>7.7999999999999996E-3</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="Q75">
-        <v>3.6999999999999998E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="R75">
-        <v>3.1E-2</v>
+        <v>7.6E-3</v>
       </c>
       <c r="S75">
-        <v>1.19</v>
-      </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.25">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="T75">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="U75">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76" s="11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76" s="11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H76">
-        <v>1.2999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="I76" s="11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J76">
-        <v>0.16</v>
+        <v>1.55</v>
       </c>
       <c r="K76">
         <v>384</v>
       </c>
-      <c r="L76" t="s">
-        <v>6</v>
+      <c r="L76">
+        <v>0.92</v>
       </c>
       <c r="M76">
-        <v>0.17</v>
-      </c>
-      <c r="N76" t="s">
-        <v>6</v>
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="N76">
+        <v>0.91</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="P76">
-        <v>0</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>6</v>
-      </c>
-      <c r="R76" t="s">
-        <v>6</v>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="Q76">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="R76">
+        <v>7.6E-3</v>
       </c>
       <c r="S76">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.25">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="T76">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="U76">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77" s="11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="G77" s="11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H77">
         <v>0</v>
       </c>
       <c r="I77" s="11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J77">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="K77">
         <v>384</v>
       </c>
-      <c r="L77">
-        <v>0.83</v>
+      <c r="L77" t="s">
+        <v>6</v>
       </c>
       <c r="M77">
-        <v>0.16400000000000001</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="N77">
-        <v>4.2999999999999997E-2</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="P77">
-        <v>1E-3</v>
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="P77" t="s">
+        <v>6</v>
       </c>
       <c r="Q77">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R77">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="S77">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="S77" t="s">
+        <v>6</v>
+      </c>
+      <c r="T77" t="s">
+        <v>6</v>
+      </c>
+      <c r="U77">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="78" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78" s="11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78" s="11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78" s="11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J78">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="K78">
         <v>384</v>
       </c>
       <c r="L78">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="M78">
-        <v>0.189</v>
+        <v>0.153</v>
       </c>
       <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="P78">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="Q78">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="R78">
+        <v>1E-3</v>
+      </c>
+      <c r="S78">
+        <v>0.01</v>
+      </c>
+      <c r="T78">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="O78">
-        <v>2.7E-2</v>
-      </c>
-      <c r="P78">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="Q78">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="R78">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="S78">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U78">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79" s="11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79" s="11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H79">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="I79" s="11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J79">
-        <v>1.62</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K79">
         <v>384</v>
@@ -4922,796 +5361,1450 @@
         <v>0.85</v>
       </c>
       <c r="M79">
-        <v>0.45500000000000002</v>
+        <v>0.188</v>
       </c>
       <c r="N79">
-        <v>3.4000000000000002E-2</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>4.1000000000000002E-2</v>
+        <v>0.248</v>
       </c>
       <c r="P79">
-        <v>7.7999999999999996E-3</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="Q79">
-        <v>3.6999999999999998E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="R79">
-        <v>3.1E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="S79">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.25">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="T79">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="U79">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="80" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80" s="11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="G80" s="11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H80">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I80" s="11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J80">
-        <v>1.99</v>
+        <v>2.13</v>
       </c>
       <c r="K80">
         <v>384</v>
       </c>
       <c r="L80">
-        <v>0.91</v>
+        <v>0.81</v>
       </c>
       <c r="M80">
-        <v>0.52200000000000002</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="N80">
+        <v>0.87</v>
+      </c>
+      <c r="O80">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="P80">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="O80">
+      <c r="Q80">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="P80">
+      <c r="R80">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="Q80">
+      <c r="S80">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="R80">
+      <c r="T80">
         <v>3.1E-2</v>
       </c>
-      <c r="S80">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="81" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U80">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="81" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="G81" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H81">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="I81" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J81">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="K81">
         <v>384</v>
       </c>
       <c r="L81">
-        <v>0.81</v>
+        <v>0.9</v>
       </c>
       <c r="M81">
-        <v>0.59499999999999997</v>
+        <v>0.127</v>
       </c>
       <c r="N81">
+        <v>0.87</v>
+      </c>
+      <c r="O81">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="P81">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="O81">
+      <c r="Q81">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="P81">
+      <c r="R81">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="Q81">
+      <c r="S81">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="R81">
+      <c r="T81">
         <v>3.1E-2</v>
       </c>
-      <c r="S81">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="82" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U81">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="82" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F82">
-        <v>3.5999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="G82" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H82">
-        <v>3.9E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="I82" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J82">
-        <v>10.06</v>
+        <v>1.97</v>
       </c>
       <c r="K82">
         <v>384</v>
       </c>
       <c r="L82">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="M82">
-        <v>3.996</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="N82">
-        <v>8.0000000000000002E-3</v>
+        <v>0.89</v>
       </c>
       <c r="O82">
-        <v>8.9999999999999993E-3</v>
+        <v>0.307</v>
       </c>
       <c r="P82">
-        <v>8.0000000000000002E-3</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="Q82">
-        <v>8.0000000000000002E-3</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="R82">
-        <v>7.0000000000000001E-3</v>
+        <v>7.7999999999999996E-3</v>
       </c>
       <c r="S82">
-        <v>6.27</v>
-      </c>
-    </row>
-    <row r="83" spans="2:19" x14ac:dyDescent="0.25">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="T82">
+        <v>3.1E-2</v>
+      </c>
+      <c r="U82">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="83" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83" s="11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F83">
-        <v>8.6999999999999994E-2</v>
+        <v>0</v>
       </c>
       <c r="G83" s="11">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H83">
-        <v>9.6000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="I83" s="11">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J83">
-        <v>41.12</v>
+        <v>0.18</v>
       </c>
       <c r="K83">
         <v>384</v>
       </c>
-      <c r="L83">
-        <v>1.22</v>
+      <c r="L83" t="s">
+        <v>6</v>
       </c>
       <c r="M83">
-        <v>8.1519999999999992</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="N83">
-        <v>2.3E-2</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0.03</v>
-      </c>
-      <c r="P83">
-        <v>7.7999999999999996E-3</v>
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="P83" t="s">
+        <v>6</v>
       </c>
       <c r="Q83">
-        <v>2.5999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="R83">
-        <v>3.1E-2</v>
-      </c>
-      <c r="S83">
-        <v>13.76</v>
-      </c>
-    </row>
-    <row r="84" spans="2:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="S83" t="s">
+        <v>6</v>
+      </c>
+      <c r="T83" t="s">
+        <v>6</v>
+      </c>
+      <c r="U83">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="84" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84" s="11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F84">
-        <v>7.0999999999999994E-2</v>
+        <v>0</v>
       </c>
       <c r="G84" s="11">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H84">
-        <v>8.2000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="I84" s="11">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J84">
-        <v>40.03</v>
+        <v>0.22</v>
       </c>
       <c r="K84">
         <v>384</v>
       </c>
       <c r="L84">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M84">
-        <v>7.9219999999999997</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="N84">
-        <v>2.3E-2</v>
+        <v>1</v>
       </c>
       <c r="O84">
-        <v>0.03</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="P84">
-        <v>7.7999999999999996E-3</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="Q84">
-        <v>2.5999999999999999E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="R84">
-        <v>3.1E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="S84">
-        <v>14.31</v>
-      </c>
-    </row>
-    <row r="85" spans="2:19" x14ac:dyDescent="0.25">
+        <v>0.01</v>
+      </c>
+      <c r="T84">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="U84">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="85" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85" s="11">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F85">
-        <v>0.115</v>
+        <v>0</v>
       </c>
       <c r="G85" s="11">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H85">
-        <v>0.124</v>
+        <v>0</v>
       </c>
       <c r="I85" s="11">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J85">
-        <v>41.2</v>
+        <v>0.33</v>
       </c>
       <c r="K85">
         <v>384</v>
       </c>
       <c r="L85">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="M85">
-        <v>8.1690000000000005</v>
+        <v>0.156</v>
       </c>
       <c r="N85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O85">
-        <v>0</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="P85">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>6</v>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="Q85">
+        <v>2.7E-2</v>
       </c>
       <c r="R85">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="S85">
-        <v>13.58</v>
-      </c>
-    </row>
-    <row r="86" spans="2:19" x14ac:dyDescent="0.25">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="T85">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="U85">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="86" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86" s="11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F86">
-        <v>6.5000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="G86" s="11">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H86">
-        <v>7.3999999999999996E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="I86" s="11">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J86">
-        <v>40.21</v>
+        <v>2.09</v>
       </c>
       <c r="K86">
         <v>384</v>
       </c>
       <c r="L86">
-        <v>0.84</v>
+        <v>0.91</v>
       </c>
       <c r="M86">
-        <v>7.9390000000000001</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="N86">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="P86">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>6</v>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="Q86">
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="R86">
-        <v>0</v>
+        <v>7.7999999999999996E-3</v>
       </c>
       <c r="S86">
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="87" spans="2:19" x14ac:dyDescent="0.25">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="T86">
+        <v>3.1E-2</v>
+      </c>
+      <c r="U86">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="87" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87" s="11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F87">
-        <v>9.0999999999999998E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="G87" s="11">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H87">
-        <v>0.1</v>
+        <v>2E-3</v>
       </c>
       <c r="I87" s="11">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J87">
-        <v>39.380000000000003</v>
+        <v>2.68</v>
       </c>
       <c r="K87">
         <v>384</v>
       </c>
       <c r="L87">
+        <v>0.85</v>
+      </c>
+      <c r="M87">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="N87">
         <v>0.87</v>
       </c>
-      <c r="M87">
-        <v>7.8129999999999997</v>
-      </c>
-      <c r="N87">
-        <v>0</v>
-      </c>
       <c r="O87">
-        <v>0</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="P87">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>6</v>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="Q87">
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="R87">
-        <v>0</v>
+        <v>7.7999999999999996E-3</v>
       </c>
       <c r="S87">
-        <v>12.97</v>
-      </c>
-    </row>
-    <row r="88" spans="2:19" x14ac:dyDescent="0.25">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="T87">
+        <v>3.1E-2</v>
+      </c>
+      <c r="U87">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="88" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88" s="11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F88">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G88" s="11">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H88">
-        <v>0.111</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I88" s="11">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J88">
-        <v>42.57</v>
+        <v>2.17</v>
       </c>
       <c r="K88">
         <v>384</v>
       </c>
       <c r="L88">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="M88">
-        <v>8.4410000000000007</v>
+        <v>0.183</v>
       </c>
       <c r="N88">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="P88">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>6</v>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="Q88">
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="R88">
-        <v>0</v>
+        <v>7.7999999999999996E-3</v>
       </c>
       <c r="S88">
-        <v>14.49</v>
-      </c>
-    </row>
-    <row r="89" spans="2:19" x14ac:dyDescent="0.25">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="T88">
+        <v>3.1E-2</v>
+      </c>
+      <c r="U88">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="89" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89" s="11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F89">
-        <v>0.217</v>
+        <v>1.9E-2</v>
       </c>
       <c r="G89" s="11">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H89">
-        <v>0.22700000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I89" s="11">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="J89">
-        <v>42.72</v>
+        <v>7.83</v>
       </c>
       <c r="K89">
         <v>384</v>
       </c>
       <c r="L89">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="M89">
-        <v>8.6240000000000006</v>
+        <v>2.35</v>
       </c>
       <c r="N89">
-        <v>2.3E-2</v>
+        <v>0.74</v>
       </c>
       <c r="O89">
-        <v>2.8000000000000001E-2</v>
+        <v>5.2060000000000004</v>
       </c>
       <c r="P89">
-        <v>7.1999999999999998E-3</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="Q89">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="R89">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="S89">
         <v>2.3E-2</v>
       </c>
-      <c r="S89">
-        <v>15.15</v>
-      </c>
-    </row>
-    <row r="90" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T89">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="U89">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="90" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C90" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90" s="11">
+        <v>5</v>
+      </c>
+      <c r="F90">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G90" s="11">
+        <v>5</v>
+      </c>
+      <c r="H90">
+        <v>2E-3</v>
+      </c>
+      <c r="I90" s="11">
+        <v>5</v>
+      </c>
+      <c r="J90">
+        <v>0.88</v>
+      </c>
+      <c r="K90">
+        <v>2.819</v>
+      </c>
+      <c r="L90">
+        <v>0.8</v>
+      </c>
+      <c r="M90">
+        <v>4.51</v>
+      </c>
+      <c r="N90">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="O90">
+        <v>3.9E-2</v>
+      </c>
+      <c r="P90">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="Q90">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="R90">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="S90">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="91" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90" s="11">
-        <v>2</v>
-      </c>
-      <c r="F90">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="G90" s="11">
-        <v>18</v>
-      </c>
-      <c r="H90">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="I90" s="11">
-        <v>21</v>
-      </c>
-      <c r="J90">
-        <v>46.97</v>
-      </c>
-      <c r="K90">
-        <v>384</v>
-      </c>
-      <c r="L90">
-        <v>0.77</v>
-      </c>
-      <c r="M90">
-        <v>9.2729999999999997</v>
-      </c>
-      <c r="N90">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="O90">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="P90">
-        <v>7.7000000000000002E-3</v>
-      </c>
-      <c r="Q90">
-        <v>2.7E-2</v>
-      </c>
-      <c r="R90">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="S90">
-        <v>15.64</v>
-      </c>
-    </row>
-    <row r="91" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>16</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F91">
-        <v>0.27100000000000002</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G91" s="11">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="H91">
-        <v>0.27400000000000002</v>
+        <v>2E-3</v>
       </c>
       <c r="I91" s="11">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="J91">
-        <v>6.72</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="K91">
         <v>384</v>
       </c>
       <c r="L91">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="M91">
-        <v>1.841</v>
+        <v>2.1309999999999998</v>
       </c>
       <c r="N91">
-        <v>1E-3</v>
+        <v>0.83</v>
       </c>
       <c r="O91">
-        <v>2E-3</v>
+        <v>4.0730000000000004</v>
       </c>
       <c r="P91">
-        <v>8.0000000000000002E-3</v>
+        <v>3.1E-2</v>
       </c>
       <c r="Q91">
-        <v>2E-3</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="R91">
-        <v>2E-3</v>
+        <v>7.7999999999999996E-3</v>
       </c>
       <c r="S91">
-        <v>17.73</v>
-      </c>
-    </row>
-    <row r="92" spans="2:19" x14ac:dyDescent="0.25">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="T91">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="U91">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="92" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92" s="11">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F92">
-        <v>0.17499999999999999</v>
+        <v>0.107</v>
       </c>
       <c r="G92" s="11">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H92">
-        <v>0.17699999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="I92" s="11">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J92">
-        <v>6.82</v>
+        <v>47.58</v>
       </c>
       <c r="K92">
         <v>384</v>
       </c>
       <c r="L92">
-        <v>0.89</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="M92">
-        <v>1.609</v>
+        <v>0.11</v>
       </c>
       <c r="N92">
-        <v>1E-3</v>
+        <v>0.69</v>
       </c>
       <c r="O92">
-        <v>2E-3</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="P92">
-        <v>8.0000000000000002E-3</v>
+        <v>2.3E-2</v>
       </c>
       <c r="Q92">
-        <v>2E-3</v>
+        <v>0.03</v>
       </c>
       <c r="R92">
-        <v>2E-3</v>
+        <v>7.7999999999999996E-3</v>
       </c>
       <c r="S92">
-        <v>17.420000000000002</v>
-      </c>
-    </row>
-    <row r="93" spans="2:19" x14ac:dyDescent="0.25">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="T92">
+        <v>3.1E-2</v>
+      </c>
+      <c r="U92">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="93" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F93">
-        <v>1.1759999999999999</v>
+        <v>7.8E-2</v>
       </c>
       <c r="G93" s="11">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="H93">
-        <v>1.18</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="I93" s="11">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="J93">
-        <v>1.96</v>
+        <v>55.47</v>
       </c>
       <c r="K93">
         <v>384</v>
       </c>
       <c r="L93">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="M93">
-        <v>2.8530000000000002</v>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="N93">
+        <v>0.68</v>
+      </c>
+      <c r="O93">
+        <v>0.152</v>
+      </c>
+      <c r="P93">
+        <v>2.3E-2</v>
+      </c>
+      <c r="Q93">
+        <v>0.03</v>
+      </c>
+      <c r="R93">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="S93">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="T93">
+        <v>3.1E-2</v>
+      </c>
+      <c r="U93">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="94" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94" s="11">
+        <v>3</v>
+      </c>
+      <c r="F94">
+        <v>0.108</v>
+      </c>
+      <c r="G94" s="11">
+        <v>15</v>
+      </c>
+      <c r="H94">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I94" s="11">
+        <v>15</v>
+      </c>
+      <c r="J94">
+        <v>54.65</v>
+      </c>
+      <c r="K94">
+        <v>384</v>
+      </c>
+      <c r="L94">
+        <v>0.82</v>
+      </c>
+      <c r="M94">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="N94">
+        <v>0.6</v>
+      </c>
+      <c r="O94">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="S94" t="s">
+        <v>6</v>
+      </c>
+      <c r="T94">
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <v>6.47</v>
+      </c>
+    </row>
+    <row r="95" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95" s="11">
+        <v>5</v>
+      </c>
+      <c r="F95">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G95" s="11">
+        <v>16</v>
+      </c>
+      <c r="H95">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I95" s="11">
+        <v>16</v>
+      </c>
+      <c r="J95">
+        <v>48.2</v>
+      </c>
+      <c r="K95">
+        <v>384</v>
+      </c>
+      <c r="L95">
+        <v>0.84</v>
+      </c>
+      <c r="M95">
+        <v>0.08</v>
+      </c>
+      <c r="N95">
+        <v>0.62</v>
+      </c>
+      <c r="O95">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="S95" t="s">
+        <v>6</v>
+      </c>
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <v>7.83</v>
+      </c>
+    </row>
+    <row r="96" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96" s="11">
+        <v>4</v>
+      </c>
+      <c r="F96">
+        <v>0.104</v>
+      </c>
+      <c r="G96" s="11">
+        <v>15</v>
+      </c>
+      <c r="H96">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I96" s="11">
+        <v>15</v>
+      </c>
+      <c r="J96">
+        <v>47.15</v>
+      </c>
+      <c r="K96">
+        <v>384</v>
+      </c>
+      <c r="L96">
+        <v>0.82</v>
+      </c>
+      <c r="M96">
+        <v>0.108</v>
+      </c>
+      <c r="N96">
+        <v>0.62</v>
+      </c>
+      <c r="O96">
+        <v>0.18</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="S96" t="s">
+        <v>6</v>
+      </c>
+      <c r="T96">
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="97" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97" s="11">
+        <v>4</v>
+      </c>
+      <c r="F97">
+        <v>0.129</v>
+      </c>
+      <c r="G97" s="11">
+        <v>14</v>
+      </c>
+      <c r="H97">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I97" s="11">
+        <v>17</v>
+      </c>
+      <c r="J97">
+        <v>53.81</v>
+      </c>
+      <c r="K97">
+        <v>384</v>
+      </c>
+      <c r="L97">
+        <v>0.85</v>
+      </c>
+      <c r="M97">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="N97">
+        <v>0.62</v>
+      </c>
+      <c r="O97">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="S97" t="s">
+        <v>6</v>
+      </c>
+      <c r="T97">
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <v>8.16</v>
+      </c>
+    </row>
+    <row r="98" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98" s="11">
+        <v>4</v>
+      </c>
+      <c r="F98">
+        <v>0.224</v>
+      </c>
+      <c r="G98" s="11">
+        <v>20</v>
+      </c>
+      <c r="H98">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I98" s="11">
+        <v>23</v>
+      </c>
+      <c r="J98">
+        <v>48.87</v>
+      </c>
+      <c r="K98">
+        <v>384</v>
+      </c>
+      <c r="L98">
+        <v>0.84</v>
+      </c>
+      <c r="M98">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="N98">
+        <v>0.75</v>
+      </c>
+      <c r="O98">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="P98">
+        <v>2.3E-2</v>
+      </c>
+      <c r="Q98">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="R98">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="S98">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="T98">
+        <v>2.3E-2</v>
+      </c>
+      <c r="U98">
+        <v>7.35</v>
+      </c>
+    </row>
+    <row r="99" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99" s="11">
+        <v>3</v>
+      </c>
+      <c r="F99">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="G99" s="11">
+        <v>19</v>
+      </c>
+      <c r="H99">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I99" s="11">
+        <v>21</v>
+      </c>
+      <c r="J99">
+        <v>48.68</v>
+      </c>
+      <c r="K99">
+        <v>384</v>
+      </c>
+      <c r="L99">
+        <v>0.78</v>
+      </c>
+      <c r="M99">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="N99">
+        <v>0.65</v>
+      </c>
+      <c r="O99">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="P99">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Q99">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="R99">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="S99">
+        <v>2.7E-2</v>
+      </c>
+      <c r="T99">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="U99">
+        <v>9.23</v>
+      </c>
+    </row>
+    <row r="100" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100" s="11">
+        <v>3</v>
+      </c>
+      <c r="F100">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="G100" s="11">
+        <v>25</v>
+      </c>
+      <c r="H100">
+        <v>2.4E-2</v>
+      </c>
+      <c r="I100" s="11">
+        <v>25</v>
+      </c>
+      <c r="J100">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="K100">
+        <v>384</v>
+      </c>
+      <c r="L100">
+        <v>0.9</v>
+      </c>
+      <c r="M100">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="N100">
+        <v>0.67</v>
+      </c>
+      <c r="O100">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="P100">
+        <v>1E-3</v>
+      </c>
+      <c r="Q100">
+        <v>2E-3</v>
+      </c>
+      <c r="R100">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="S100">
+        <v>2E-3</v>
+      </c>
+      <c r="T100">
+        <v>2E-3</v>
+      </c>
+      <c r="U100">
+        <v>18.91</v>
+      </c>
+    </row>
+    <row r="101" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101" s="11">
+        <v>6</v>
+      </c>
+      <c r="F101">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="G101" s="11">
+        <v>27</v>
+      </c>
+      <c r="H101">
+        <v>1E-3</v>
+      </c>
+      <c r="I101" s="11">
+        <v>27</v>
+      </c>
+      <c r="J101">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="K101">
+        <v>384</v>
+      </c>
+      <c r="L101">
+        <v>0.85</v>
+      </c>
+      <c r="M101">
+        <v>0.108</v>
+      </c>
+      <c r="N101">
+        <v>0.7</v>
+      </c>
+      <c r="O101">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="P101">
+        <v>1E-3</v>
+      </c>
+      <c r="Q101">
+        <v>2E-3</v>
+      </c>
+      <c r="R101">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="S101">
+        <v>2E-3</v>
+      </c>
+      <c r="T101">
+        <v>2E-3</v>
+      </c>
+      <c r="U101">
+        <v>21.11</v>
+      </c>
+    </row>
+    <row r="102" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102" s="11">
+        <v>6</v>
+      </c>
+      <c r="F102">
+        <v>1.972</v>
+      </c>
+      <c r="G102" s="11">
+        <v>74</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102" s="11">
+        <v>74</v>
+      </c>
+      <c r="J102">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="K102">
+        <v>384</v>
+      </c>
+      <c r="L102">
+        <v>0.99</v>
+      </c>
+      <c r="M102">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="N102">
+        <v>0.65</v>
+      </c>
+      <c r="O102">
+        <v>1.998</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AB54:AB1048576 AB3:AB4">
-    <cfRule type="colorScale" priority="21">
+  <conditionalFormatting sqref="N1:N10 N61:N1048576">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L10 L61:L1048576">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5722,8 +6815,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD54:AD1048576 AD3:AD4">
-    <cfRule type="colorScale" priority="20">
+  <conditionalFormatting sqref="P1:P1048576">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5734,8 +6827,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD54:AD1048576 AD3:AD4">
-    <cfRule type="colorScale" priority="18">
+  <conditionalFormatting sqref="Q1:Q1048576">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1048576">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5746,20 +6851,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF54:AF1048576 AF3:AF4">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH54:AH1048576 AH3:AH4">
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="S1:S1048576">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5770,92 +6863,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI54:AI1048576 AI3:AI4">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L10 L54:L1048576">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N10 N54:N1048576">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O10 O54:O1048576">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P10 P54:P1048576">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q10 Q54:Q1048576">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J10 J54:J1048576">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R10 R54:R1048576">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="T1:T1048576">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
